--- a/database/industries/siman/save/cashflow/quarterly.xlsx
+++ b/database/industries/siman/save/cashflow/quarterly.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7350"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20700" windowHeight="9450"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>ساوه-سیمان ساوه</t>
@@ -36,9 +36,6 @@
     <t>دوره مالی</t>
   </si>
   <si>
-    <t>فصل دوم منتهی به 1400/06</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1400/09</t>
   </si>
   <si>
@@ -51,22 +48,25 @@
     <t>فصل دوم منتهی به 1401/06</t>
   </si>
   <si>
+    <t>فصل سوم منتهی به 1401/09</t>
+  </si>
+  <si>
     <t>تاریخ انتشار</t>
   </si>
   <si>
-    <t>1401-08-30 (4)</t>
-  </si>
-  <si>
-    <t>1400-11-02</t>
-  </si>
-  <si>
-    <t>1401-08-30 (7)</t>
+    <t>1401-11-01 (2)</t>
+  </si>
+  <si>
+    <t>1401-11-01 (8)</t>
   </si>
   <si>
     <t>1401-05-01</t>
   </si>
   <si>
     <t>1401-08-30 (2)</t>
+  </si>
+  <si>
+    <t>1401-11-01</t>
   </si>
   <si>
     <t>فعالیتهای عملیاتی</t>
@@ -665,9 +665,9 @@
   <cols>
     <col min="2" max="2" width="74" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="5" width="29" customWidth="1"/>
-    <col min="6" max="6" width="31" customWidth="1"/>
-    <col min="7" max="8" width="29" customWidth="1"/>
+    <col min="4" max="4" width="29" customWidth="1"/>
+    <col min="5" max="5" width="31" customWidth="1"/>
+    <col min="6" max="8" width="29" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" x14ac:dyDescent="0.25">
@@ -809,19 +809,19 @@
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15">
-        <v>1717640</v>
+        <v>-333461</v>
       </c>
       <c r="E12" s="15">
-        <v>-334461</v>
+        <v>2436389</v>
       </c>
       <c r="F12" s="15">
-        <v>2436389</v>
+        <v>2683124</v>
       </c>
       <c r="G12" s="15">
-        <v>2683124</v>
+        <v>1739073</v>
       </c>
       <c r="H12" s="15">
-        <v>1739073</v>
+        <v>1151190</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
@@ -830,19 +830,19 @@
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11">
-        <v>-178414</v>
+        <v>-347236</v>
       </c>
       <c r="E13" s="11">
-        <v>-346236</v>
+        <v>136680</v>
       </c>
       <c r="F13" s="11">
-        <v>136680</v>
+        <v>0</v>
       </c>
       <c r="G13" s="11">
-        <v>0</v>
+        <v>-279401</v>
       </c>
       <c r="H13" s="11">
-        <v>-279401</v>
+        <v>-158450</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
@@ -851,19 +851,19 @@
       </c>
       <c r="C14" s="17"/>
       <c r="D14" s="17">
-        <v>1539226</v>
+        <v>-680697</v>
       </c>
       <c r="E14" s="17">
-        <v>-680697</v>
+        <v>2573069</v>
       </c>
       <c r="F14" s="17">
-        <v>2573069</v>
+        <v>2683124</v>
       </c>
       <c r="G14" s="17">
-        <v>2683124</v>
+        <v>1459672</v>
       </c>
       <c r="H14" s="17">
-        <v>1459672</v>
+        <v>992740</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
@@ -904,19 +904,19 @@
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11">
-        <v>-16051</v>
+        <v>0</v>
       </c>
       <c r="E17" s="11">
-        <v>0</v>
+        <v>-25455</v>
       </c>
       <c r="F17" s="11">
-        <v>-25455</v>
+        <v>0</v>
       </c>
       <c r="G17" s="11">
-        <v>0</v>
+        <v>-20555</v>
       </c>
       <c r="H17" s="11">
-        <v>-20555</v>
+        <v>-522</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
@@ -1030,13 +1030,13 @@
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11">
-        <v>615600</v>
+        <v>29535</v>
       </c>
       <c r="E23" s="11">
-        <v>29535</v>
+        <v>-645135</v>
       </c>
       <c r="F23" s="11">
-        <v>-645135</v>
+        <v>0</v>
       </c>
       <c r="G23" s="11">
         <v>0</v>
@@ -1051,13 +1051,13 @@
       </c>
       <c r="C24" s="15"/>
       <c r="D24" s="15">
-        <v>0</v>
+        <v>-76020</v>
       </c>
       <c r="E24" s="15">
-        <v>-76020</v>
+        <v>76020</v>
       </c>
       <c r="F24" s="15">
-        <v>76020</v>
+        <v>0</v>
       </c>
       <c r="G24" s="15">
         <v>0</v>
@@ -1075,10 +1075,10 @@
         <v>0</v>
       </c>
       <c r="E25" s="11">
-        <v>0</v>
+        <v>11851</v>
       </c>
       <c r="F25" s="11">
-        <v>11851</v>
+        <v>0</v>
       </c>
       <c r="G25" s="11">
         <v>0</v>
@@ -1093,19 +1093,19 @@
       </c>
       <c r="C26" s="15"/>
       <c r="D26" s="15">
-        <v>2054093</v>
+        <v>76020</v>
       </c>
       <c r="E26" s="15">
-        <v>76020</v>
+        <v>-1687998</v>
       </c>
       <c r="F26" s="15">
-        <v>-1687998</v>
+        <v>-746398</v>
       </c>
       <c r="G26" s="15">
-        <v>-746398</v>
+        <v>199992</v>
       </c>
       <c r="H26" s="15">
-        <v>199992</v>
+        <v>-44970</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
@@ -1177,19 +1177,19 @@
       </c>
       <c r="C30" s="15"/>
       <c r="D30" s="15">
-        <v>24844</v>
+        <v>0</v>
       </c>
       <c r="E30" s="15">
         <v>0</v>
       </c>
       <c r="F30" s="15">
-        <v>0</v>
+        <v>89971</v>
       </c>
       <c r="G30" s="15">
-        <v>89971</v>
+        <v>-48603</v>
       </c>
       <c r="H30" s="15">
-        <v>-48603</v>
+        <v>48360</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
@@ -1198,19 +1198,19 @@
       </c>
       <c r="C31" s="11"/>
       <c r="D31" s="11">
-        <v>123012</v>
+        <v>166425</v>
       </c>
       <c r="E31" s="11">
-        <v>166425</v>
+        <v>93549</v>
       </c>
       <c r="F31" s="11">
-        <v>93549</v>
+        <v>158484</v>
       </c>
       <c r="G31" s="11">
-        <v>158484</v>
+        <v>268494</v>
       </c>
       <c r="H31" s="11">
-        <v>268494</v>
+        <v>195174</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
@@ -1219,19 +1219,19 @@
       </c>
       <c r="C32" s="17"/>
       <c r="D32" s="17">
-        <v>2801498</v>
+        <v>195960</v>
       </c>
       <c r="E32" s="17">
-        <v>195960</v>
+        <v>-2177168</v>
       </c>
       <c r="F32" s="17">
-        <v>-2177168</v>
+        <v>-497943</v>
       </c>
       <c r="G32" s="17">
-        <v>-497943</v>
+        <v>399328</v>
       </c>
       <c r="H32" s="17">
-        <v>399328</v>
+        <v>198042</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
@@ -1240,19 +1240,19 @@
       </c>
       <c r="C33" s="19"/>
       <c r="D33" s="19">
-        <v>4340724</v>
+        <v>-484737</v>
       </c>
       <c r="E33" s="19">
-        <v>-484737</v>
+        <v>395901</v>
       </c>
       <c r="F33" s="19">
-        <v>395901</v>
+        <v>2185181</v>
       </c>
       <c r="G33" s="19">
-        <v>2185181</v>
+        <v>1859000</v>
       </c>
       <c r="H33" s="19">
-        <v>1859000</v>
+        <v>1190782</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
@@ -1314,19 +1314,19 @@
       </c>
       <c r="C37" s="15"/>
       <c r="D37" s="15">
-        <v>92772</v>
+        <v>-92772</v>
       </c>
       <c r="E37" s="15">
-        <v>-92772</v>
+        <v>149376</v>
       </c>
       <c r="F37" s="15">
-        <v>149376</v>
+        <v>0</v>
       </c>
       <c r="G37" s="15">
-        <v>0</v>
+        <v>80512</v>
       </c>
       <c r="H37" s="15">
-        <v>80512</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
@@ -1335,19 +1335,19 @@
       </c>
       <c r="C38" s="11"/>
       <c r="D38" s="11">
-        <v>-63237</v>
+        <v>63237</v>
       </c>
       <c r="E38" s="11">
-        <v>63237</v>
+        <v>-147929</v>
       </c>
       <c r="F38" s="11">
-        <v>-147929</v>
+        <v>0</v>
       </c>
       <c r="G38" s="11">
-        <v>0</v>
+        <v>-14512</v>
       </c>
       <c r="H38" s="11">
-        <v>-14512</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
@@ -1377,19 +1377,19 @@
       </c>
       <c r="C40" s="11"/>
       <c r="D40" s="11">
+        <v>0</v>
+      </c>
+      <c r="E40" s="11">
         <v>-17160</v>
       </c>
-      <c r="E40" s="11">
-        <v>0</v>
-      </c>
       <c r="F40" s="11">
+        <v>0</v>
+      </c>
+      <c r="G40" s="11">
         <v>-17160</v>
       </c>
-      <c r="G40" s="11">
-        <v>0</v>
-      </c>
       <c r="H40" s="11">
-        <v>-17160</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
@@ -1398,19 +1398,19 @@
       </c>
       <c r="C41" s="15"/>
       <c r="D41" s="15">
-        <v>-23046</v>
+        <v>0</v>
       </c>
       <c r="E41" s="15">
-        <v>0</v>
+        <v>-24323</v>
       </c>
       <c r="F41" s="15">
-        <v>-24323</v>
+        <v>0</v>
       </c>
       <c r="G41" s="15">
-        <v>0</v>
+        <v>-25620</v>
       </c>
       <c r="H41" s="15">
-        <v>-25620</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
@@ -1587,19 +1587,19 @@
       </c>
       <c r="C50" s="11"/>
       <c r="D50" s="11">
-        <v>-3131441</v>
+        <v>-24148</v>
       </c>
       <c r="E50" s="11">
-        <v>-24148</v>
+        <v>-341</v>
       </c>
       <c r="F50" s="11">
-        <v>-341</v>
+        <v>0</v>
       </c>
       <c r="G50" s="11">
-        <v>0</v>
+        <v>-1999558</v>
       </c>
       <c r="H50" s="11">
-        <v>-1999558</v>
+        <v>-2856701</v>
       </c>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.25">
@@ -1608,19 +1608,19 @@
       </c>
       <c r="C51" s="17"/>
       <c r="D51" s="17">
-        <v>-3142112</v>
+        <v>-53683</v>
       </c>
       <c r="E51" s="17">
-        <v>-53683</v>
+        <v>-40377</v>
       </c>
       <c r="F51" s="17">
-        <v>-40377</v>
+        <v>0</v>
       </c>
       <c r="G51" s="17">
-        <v>0</v>
+        <v>-1976338</v>
       </c>
       <c r="H51" s="17">
-        <v>-1976338</v>
+        <v>-2856701</v>
       </c>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.25">
@@ -1629,19 +1629,19 @@
       </c>
       <c r="C52" s="19"/>
       <c r="D52" s="19">
-        <v>1198612</v>
+        <v>-538420</v>
       </c>
       <c r="E52" s="19">
-        <v>-538420</v>
+        <v>355524</v>
       </c>
       <c r="F52" s="19">
-        <v>355524</v>
+        <v>2185181</v>
       </c>
       <c r="G52" s="19">
-        <v>2185181</v>
+        <v>-117338</v>
       </c>
       <c r="H52" s="19">
-        <v>-117338</v>
+        <v>-1665919</v>
       </c>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.25">
@@ -1650,19 +1650,19 @@
       </c>
       <c r="C53" s="15"/>
       <c r="D53" s="15">
-        <v>210560</v>
+        <v>1421181</v>
       </c>
       <c r="E53" s="15">
-        <v>1421181</v>
+        <v>882761</v>
       </c>
       <c r="F53" s="15">
-        <v>882761</v>
+        <v>1224333</v>
       </c>
       <c r="G53" s="15">
-        <v>1224333</v>
+        <v>3409514</v>
       </c>
       <c r="H53" s="15">
-        <v>3409514</v>
+        <v>3292993</v>
       </c>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.25">
@@ -1671,19 +1671,19 @@
       </c>
       <c r="C54" s="11"/>
       <c r="D54" s="11">
-        <v>12009</v>
+        <v>0</v>
       </c>
       <c r="E54" s="11">
-        <v>0</v>
+        <v>-13952</v>
       </c>
       <c r="F54" s="11">
-        <v>-13952</v>
+        <v>0</v>
       </c>
       <c r="G54" s="11">
-        <v>0</v>
+        <v>817</v>
       </c>
       <c r="H54" s="11">
-        <v>817</v>
+        <v>81686</v>
       </c>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.25">
@@ -1692,19 +1692,19 @@
       </c>
       <c r="C55" s="17"/>
       <c r="D55" s="17">
-        <v>1421181</v>
+        <v>882761</v>
       </c>
       <c r="E55" s="17">
-        <v>882761</v>
+        <v>1224333</v>
       </c>
       <c r="F55" s="17">
-        <v>1224333</v>
+        <v>3409514</v>
       </c>
       <c r="G55" s="17">
-        <v>3409514</v>
+        <v>3292993</v>
       </c>
       <c r="H55" s="17">
-        <v>3292993</v>
+        <v>1708760</v>
       </c>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.25">

--- a/database/industries/siman/save/cashflow/quarterly.xlsx
+++ b/database/industries/siman/save/cashflow/quarterly.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\siman\save\cashflow\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E09226E7-A415-452A-BC99-0AB180A60FD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7350"/>
+    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>ساوه-سیمان ساوه</t>
@@ -36,9 +37,6 @@
     <t>دوره مالی</t>
   </si>
   <si>
-    <t>فصل دوم منتهی به 1400/06</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1400/09</t>
   </si>
   <si>
@@ -51,22 +49,25 @@
     <t>فصل دوم منتهی به 1401/06</t>
   </si>
   <si>
+    <t>فصل سوم منتهی به 1401/09</t>
+  </si>
+  <si>
     <t>تاریخ انتشار</t>
   </si>
   <si>
-    <t>1401-08-30 (4)</t>
-  </si>
-  <si>
-    <t>1400-11-02</t>
-  </si>
-  <si>
-    <t>1401-08-30 (7)</t>
+    <t>1401-11-01 (2)</t>
+  </si>
+  <si>
+    <t>1401-11-01 (8)</t>
   </si>
   <si>
     <t>1401-05-01</t>
   </si>
   <si>
     <t>1401-08-30 (2)</t>
+  </si>
+  <si>
+    <t>1401-11-01</t>
   </si>
   <si>
     <t>فعالیتهای عملیاتی</t>
@@ -213,7 +214,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -411,7 +412,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -423,7 +424,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -470,6 +471,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -505,6 +523,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -656,21 +691,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:H57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="74" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="5" width="29" customWidth="1"/>
-    <col min="6" max="6" width="31" customWidth="1"/>
-    <col min="7" max="8" width="29" customWidth="1"/>
+    <col min="4" max="4" width="29" customWidth="1"/>
+    <col min="5" max="5" width="31" customWidth="1"/>
+    <col min="6" max="8" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -679,7 +714,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -690,7 +725,7 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -701,7 +736,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -710,7 +745,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="2:8" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -721,7 +756,7 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="2:8" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -732,7 +767,7 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -741,7 +776,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -762,7 +797,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
         <v>10</v>
       </c>
@@ -783,7 +818,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -792,7 +827,7 @@
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
         <v>16</v>
       </c>
@@ -803,70 +838,70 @@
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15">
-        <v>1717640</v>
+        <v>-333461</v>
       </c>
       <c r="E12" s="15">
-        <v>-334461</v>
+        <v>2436389</v>
       </c>
       <c r="F12" s="15">
-        <v>2436389</v>
+        <v>2683124</v>
       </c>
       <c r="G12" s="15">
-        <v>2683124</v>
+        <v>1739073</v>
       </c>
       <c r="H12" s="15">
-        <v>1739073</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+        <v>1151190</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11">
-        <v>-178414</v>
+        <v>-347236</v>
       </c>
       <c r="E13" s="11">
-        <v>-346236</v>
+        <v>136680</v>
       </c>
       <c r="F13" s="11">
-        <v>136680</v>
+        <v>0</v>
       </c>
       <c r="G13" s="11">
-        <v>0</v>
+        <v>-279401</v>
       </c>
       <c r="H13" s="11">
-        <v>-279401</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+        <v>-158450</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B14" s="16" t="s">
         <v>19</v>
       </c>
       <c r="C14" s="17"/>
       <c r="D14" s="17">
-        <v>1539226</v>
+        <v>-680697</v>
       </c>
       <c r="E14" s="17">
-        <v>-680697</v>
+        <v>2573069</v>
       </c>
       <c r="F14" s="17">
-        <v>2573069</v>
+        <v>2683124</v>
       </c>
       <c r="G14" s="17">
-        <v>2683124</v>
+        <v>1459672</v>
       </c>
       <c r="H14" s="17">
-        <v>1459672</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+        <v>992740</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>20</v>
       </c>
@@ -877,7 +912,7 @@
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16" s="14" t="s">
         <v>21</v>
       </c>
@@ -898,28 +933,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>22</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11">
-        <v>-16051</v>
+        <v>0</v>
       </c>
       <c r="E17" s="11">
-        <v>0</v>
+        <v>-25455</v>
       </c>
       <c r="F17" s="11">
-        <v>-25455</v>
+        <v>0</v>
       </c>
       <c r="G17" s="11">
-        <v>0</v>
+        <v>-20555</v>
       </c>
       <c r="H17" s="11">
-        <v>-20555</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+        <v>-522</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
         <v>23</v>
       </c>
@@ -940,7 +975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>24</v>
       </c>
@@ -961,7 +996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" s="14" t="s">
         <v>25</v>
       </c>
@@ -982,7 +1017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
         <v>26</v>
       </c>
@@ -1003,7 +1038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" s="14" t="s">
         <v>27</v>
       </c>
@@ -1024,19 +1059,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
         <v>28</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11">
-        <v>615600</v>
+        <v>29535</v>
       </c>
       <c r="E23" s="11">
-        <v>29535</v>
+        <v>-645135</v>
       </c>
       <c r="F23" s="11">
-        <v>-645135</v>
+        <v>0</v>
       </c>
       <c r="G23" s="11">
         <v>0</v>
@@ -1045,19 +1080,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="14" t="s">
         <v>29</v>
       </c>
       <c r="C24" s="15"/>
       <c r="D24" s="15">
-        <v>0</v>
+        <v>-76020</v>
       </c>
       <c r="E24" s="15">
-        <v>-76020</v>
+        <v>76020</v>
       </c>
       <c r="F24" s="15">
-        <v>76020</v>
+        <v>0</v>
       </c>
       <c r="G24" s="15">
         <v>0</v>
@@ -1066,7 +1101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" s="10" t="s">
         <v>30</v>
       </c>
@@ -1075,10 +1110,10 @@
         <v>0</v>
       </c>
       <c r="E25" s="11">
-        <v>0</v>
+        <v>11851</v>
       </c>
       <c r="F25" s="11">
-        <v>11851</v>
+        <v>0</v>
       </c>
       <c r="G25" s="11">
         <v>0</v>
@@ -1087,28 +1122,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" s="14" t="s">
         <v>31</v>
       </c>
       <c r="C26" s="15"/>
       <c r="D26" s="15">
-        <v>2054093</v>
+        <v>76020</v>
       </c>
       <c r="E26" s="15">
-        <v>76020</v>
+        <v>-1687998</v>
       </c>
       <c r="F26" s="15">
-        <v>-1687998</v>
+        <v>-746398</v>
       </c>
       <c r="G26" s="15">
-        <v>-746398</v>
+        <v>199992</v>
       </c>
       <c r="H26" s="15">
-        <v>199992</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+        <v>-44970</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" s="10" t="s">
         <v>32</v>
       </c>
@@ -1129,7 +1164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" s="14" t="s">
         <v>33</v>
       </c>
@@ -1150,7 +1185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B29" s="10" t="s">
         <v>34</v>
       </c>
@@ -1171,91 +1206,91 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B30" s="14" t="s">
         <v>35</v>
       </c>
       <c r="C30" s="15"/>
       <c r="D30" s="15">
-        <v>24844</v>
+        <v>0</v>
       </c>
       <c r="E30" s="15">
         <v>0</v>
       </c>
       <c r="F30" s="15">
-        <v>0</v>
+        <v>89971</v>
       </c>
       <c r="G30" s="15">
-        <v>89971</v>
+        <v>-48603</v>
       </c>
       <c r="H30" s="15">
-        <v>-48603</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+        <v>48360</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B31" s="10" t="s">
         <v>36</v>
       </c>
       <c r="C31" s="11"/>
       <c r="D31" s="11">
-        <v>123012</v>
+        <v>166425</v>
       </c>
       <c r="E31" s="11">
-        <v>166425</v>
+        <v>93549</v>
       </c>
       <c r="F31" s="11">
-        <v>93549</v>
+        <v>158484</v>
       </c>
       <c r="G31" s="11">
-        <v>158484</v>
+        <v>268494</v>
       </c>
       <c r="H31" s="11">
-        <v>268494</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+        <v>195174</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B32" s="16" t="s">
         <v>37</v>
       </c>
       <c r="C32" s="17"/>
       <c r="D32" s="17">
-        <v>2801498</v>
+        <v>195960</v>
       </c>
       <c r="E32" s="17">
-        <v>195960</v>
+        <v>-2177168</v>
       </c>
       <c r="F32" s="17">
-        <v>-2177168</v>
+        <v>-497943</v>
       </c>
       <c r="G32" s="17">
-        <v>-497943</v>
+        <v>399328</v>
       </c>
       <c r="H32" s="17">
-        <v>399328</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+        <v>198042</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B33" s="18" t="s">
         <v>38</v>
       </c>
       <c r="C33" s="19"/>
       <c r="D33" s="19">
-        <v>4340724</v>
+        <v>-484737</v>
       </c>
       <c r="E33" s="19">
-        <v>-484737</v>
+        <v>395901</v>
       </c>
       <c r="F33" s="19">
-        <v>395901</v>
+        <v>2185181</v>
       </c>
       <c r="G33" s="19">
-        <v>2185181</v>
+        <v>1859000</v>
       </c>
       <c r="H33" s="19">
-        <v>1859000</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+        <v>1190782</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B34" s="12" t="s">
         <v>39</v>
       </c>
@@ -1266,7 +1301,7 @@
       <c r="G34" s="13"/>
       <c r="H34" s="13"/>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B35" s="14" t="s">
         <v>40</v>
       </c>
@@ -1287,7 +1322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
         <v>41</v>
       </c>
@@ -1308,49 +1343,49 @@
         <v>42</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B37" s="14" t="s">
         <v>43</v>
       </c>
       <c r="C37" s="15"/>
       <c r="D37" s="15">
-        <v>92772</v>
+        <v>-92772</v>
       </c>
       <c r="E37" s="15">
-        <v>-92772</v>
+        <v>149376</v>
       </c>
       <c r="F37" s="15">
-        <v>149376</v>
+        <v>0</v>
       </c>
       <c r="G37" s="15">
-        <v>0</v>
+        <v>80512</v>
       </c>
       <c r="H37" s="15">
-        <v>80512</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
         <v>44</v>
       </c>
       <c r="C38" s="11"/>
       <c r="D38" s="11">
-        <v>-63237</v>
+        <v>63237</v>
       </c>
       <c r="E38" s="11">
-        <v>63237</v>
+        <v>-147929</v>
       </c>
       <c r="F38" s="11">
-        <v>-147929</v>
+        <v>0</v>
       </c>
       <c r="G38" s="11">
-        <v>0</v>
+        <v>-14512</v>
       </c>
       <c r="H38" s="11">
-        <v>-14512</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B39" s="14" t="s">
         <v>45</v>
       </c>
@@ -1371,49 +1406,49 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
         <v>46</v>
       </c>
       <c r="C40" s="11"/>
       <c r="D40" s="11">
+        <v>0</v>
+      </c>
+      <c r="E40" s="11">
         <v>-17160</v>
       </c>
-      <c r="E40" s="11">
-        <v>0</v>
-      </c>
       <c r="F40" s="11">
+        <v>0</v>
+      </c>
+      <c r="G40" s="11">
         <v>-17160</v>
       </c>
-      <c r="G40" s="11">
-        <v>0</v>
-      </c>
       <c r="H40" s="11">
-        <v>-17160</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B41" s="14" t="s">
         <v>47</v>
       </c>
       <c r="C41" s="15"/>
       <c r="D41" s="15">
-        <v>-23046</v>
+        <v>0</v>
       </c>
       <c r="E41" s="15">
-        <v>0</v>
+        <v>-24323</v>
       </c>
       <c r="F41" s="15">
-        <v>-24323</v>
+        <v>0</v>
       </c>
       <c r="G41" s="15">
-        <v>0</v>
+        <v>-25620</v>
       </c>
       <c r="H41" s="15">
-        <v>-25620</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B42" s="10" t="s">
         <v>48</v>
       </c>
@@ -1434,7 +1469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B43" s="14" t="s">
         <v>49</v>
       </c>
@@ -1455,7 +1490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B44" s="10" t="s">
         <v>50</v>
       </c>
@@ -1476,7 +1511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B45" s="14" t="s">
         <v>51</v>
       </c>
@@ -1497,7 +1532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B46" s="10" t="s">
         <v>52</v>
       </c>
@@ -1518,7 +1553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B47" s="14" t="s">
         <v>53</v>
       </c>
@@ -1539,7 +1574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
         <v>54</v>
       </c>
@@ -1560,7 +1595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B49" s="14" t="s">
         <v>55</v>
       </c>
@@ -1581,133 +1616,133 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
         <v>56</v>
       </c>
       <c r="C50" s="11"/>
       <c r="D50" s="11">
-        <v>-3131441</v>
+        <v>-24148</v>
       </c>
       <c r="E50" s="11">
-        <v>-24148</v>
+        <v>-341</v>
       </c>
       <c r="F50" s="11">
-        <v>-341</v>
+        <v>0</v>
       </c>
       <c r="G50" s="11">
-        <v>0</v>
+        <v>-1999558</v>
       </c>
       <c r="H50" s="11">
-        <v>-1999558</v>
-      </c>
-    </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+        <v>-2856701</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B51" s="16" t="s">
         <v>57</v>
       </c>
       <c r="C51" s="17"/>
       <c r="D51" s="17">
-        <v>-3142112</v>
+        <v>-53683</v>
       </c>
       <c r="E51" s="17">
-        <v>-53683</v>
+        <v>-40377</v>
       </c>
       <c r="F51" s="17">
-        <v>-40377</v>
+        <v>0</v>
       </c>
       <c r="G51" s="17">
-        <v>0</v>
+        <v>-1976338</v>
       </c>
       <c r="H51" s="17">
-        <v>-1976338</v>
-      </c>
-    </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+        <v>-2856701</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B52" s="18" t="s">
         <v>58</v>
       </c>
       <c r="C52" s="19"/>
       <c r="D52" s="19">
-        <v>1198612</v>
+        <v>-538420</v>
       </c>
       <c r="E52" s="19">
-        <v>-538420</v>
+        <v>355524</v>
       </c>
       <c r="F52" s="19">
-        <v>355524</v>
+        <v>2185181</v>
       </c>
       <c r="G52" s="19">
-        <v>2185181</v>
+        <v>-117338</v>
       </c>
       <c r="H52" s="19">
-        <v>-117338</v>
-      </c>
-    </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
+        <v>-1665919</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B53" s="14" t="s">
         <v>59</v>
       </c>
       <c r="C53" s="15"/>
       <c r="D53" s="15">
-        <v>210560</v>
+        <v>1421181</v>
       </c>
       <c r="E53" s="15">
-        <v>1421181</v>
+        <v>882761</v>
       </c>
       <c r="F53" s="15">
-        <v>882761</v>
+        <v>1224333</v>
       </c>
       <c r="G53" s="15">
-        <v>1224333</v>
+        <v>3409514</v>
       </c>
       <c r="H53" s="15">
-        <v>3409514</v>
-      </c>
-    </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+        <v>3292993</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
         <v>60</v>
       </c>
       <c r="C54" s="11"/>
       <c r="D54" s="11">
-        <v>12009</v>
+        <v>0</v>
       </c>
       <c r="E54" s="11">
-        <v>0</v>
+        <v>-13952</v>
       </c>
       <c r="F54" s="11">
-        <v>-13952</v>
+        <v>0</v>
       </c>
       <c r="G54" s="11">
-        <v>0</v>
+        <v>817</v>
       </c>
       <c r="H54" s="11">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
+        <v>81686</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B55" s="16" t="s">
         <v>61</v>
       </c>
       <c r="C55" s="17"/>
       <c r="D55" s="17">
-        <v>1421181</v>
+        <v>882761</v>
       </c>
       <c r="E55" s="17">
-        <v>882761</v>
+        <v>1224333</v>
       </c>
       <c r="F55" s="17">
-        <v>1224333</v>
+        <v>3409514</v>
       </c>
       <c r="G55" s="17">
-        <v>3409514</v>
+        <v>3292993</v>
       </c>
       <c r="H55" s="17">
-        <v>3292993</v>
-      </c>
-    </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
+        <v>1708760</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B56" s="10" t="s">
         <v>62</v>
       </c>
@@ -1728,7 +1763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>

--- a/database/industries/siman/save/cashflow/quarterly.xlsx
+++ b/database/industries/siman/save/cashflow/quarterly.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\siman\save\cashflow\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Trade\database\industries\siman\save\cashflow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E09226E7-A415-452A-BC99-0AB180A60FD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7350"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="73">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,6 +36,21 @@
     <t>دوره مالی</t>
   </si>
   <si>
+    <t>فصل دوم منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1399/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1400/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1400/06</t>
+  </si>
+  <si>
     <t>فصل سوم منتهی به 1400/09</t>
   </si>
   <si>
@@ -55,10 +69,25 @@
     <t>تاریخ انتشار</t>
   </si>
   <si>
-    <t>1401-11-01 (2)</t>
-  </si>
-  <si>
-    <t>1401-11-01 (8)</t>
+    <t>1400-08-29 (4)</t>
+  </si>
+  <si>
+    <t>1400-11-02 (2)</t>
+  </si>
+  <si>
+    <t>1401-02-25 (12)</t>
+  </si>
+  <si>
+    <t>1401-05-01 (3)</t>
+  </si>
+  <si>
+    <t>1401-08-30 (4)</t>
+  </si>
+  <si>
+    <t>1401-11-19 (3)</t>
+  </si>
+  <si>
+    <t>1401-11-19 (9)</t>
   </si>
   <si>
     <t>1401-05-01</t>
@@ -67,7 +96,7 @@
     <t>1401-08-30 (2)</t>
   </si>
   <si>
-    <t>1401-11-01</t>
+    <t>1401-11-19 (2)</t>
   </si>
   <si>
     <t>فعالیتهای عملیاتی</t>
@@ -214,7 +243,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -412,7 +441,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -424,7 +453,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -471,23 +500,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -523,23 +535,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -691,21 +686,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:H57"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:M57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="74" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="4" width="29" customWidth="1"/>
-    <col min="5" max="5" width="31" customWidth="1"/>
-    <col min="6" max="8" width="29" customWidth="1"/>
+    <col min="4" max="5" width="29" customWidth="1"/>
+    <col min="6" max="6" width="31" customWidth="1"/>
+    <col min="7" max="9" width="29" customWidth="1"/>
+    <col min="10" max="10" width="31" customWidth="1"/>
+    <col min="11" max="13" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -713,8 +710,13 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -724,8 +726,13 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -735,8 +742,13 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -744,8 +756,13 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" spans="2:13" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -755,8 +772,13 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-    </row>
-    <row r="6" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+    </row>
+    <row r="6" spans="2:13" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -766,8 +788,13 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -775,8 +802,13 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+    </row>
+    <row r="8" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -796,29 +828,59 @@
       <c r="H8" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -826,10 +888,15 @@
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -837,73 +904,123 @@
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" s="14" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15">
+        <v>667469</v>
+      </c>
+      <c r="E12" s="15">
+        <v>1213811</v>
+      </c>
+      <c r="F12" s="15">
+        <v>1099830</v>
+      </c>
+      <c r="G12" s="15">
+        <v>1513024</v>
+      </c>
+      <c r="H12" s="15">
+        <v>1717640</v>
+      </c>
+      <c r="I12" s="15">
         <v>-333461</v>
       </c>
-      <c r="E12" s="15">
+      <c r="J12" s="15">
         <v>2436389</v>
       </c>
-      <c r="F12" s="15">
+      <c r="K12" s="15">
         <v>2683124</v>
       </c>
-      <c r="G12" s="15">
+      <c r="L12" s="15">
         <v>1739073</v>
       </c>
-      <c r="H12" s="15">
+      <c r="M12" s="15">
         <v>1151190</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11">
+        <v>-76000</v>
+      </c>
+      <c r="E13" s="11">
+        <v>-192397</v>
+      </c>
+      <c r="F13" s="11">
+        <v>61075</v>
+      </c>
+      <c r="G13" s="11">
+        <v>0</v>
+      </c>
+      <c r="H13" s="11">
+        <v>-178414</v>
+      </c>
+      <c r="I13" s="11">
         <v>-347236</v>
       </c>
-      <c r="E13" s="11">
+      <c r="J13" s="11">
         <v>136680</v>
       </c>
-      <c r="F13" s="11">
-        <v>0</v>
-      </c>
-      <c r="G13" s="11">
+      <c r="K13" s="11">
+        <v>0</v>
+      </c>
+      <c r="L13" s="11">
         <v>-279401</v>
       </c>
-      <c r="H13" s="11">
+      <c r="M13" s="11">
         <v>-158450</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" s="16" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C14" s="17"/>
       <c r="D14" s="17">
+        <v>591469</v>
+      </c>
+      <c r="E14" s="17">
+        <v>1021414</v>
+      </c>
+      <c r="F14" s="17">
+        <v>1160905</v>
+      </c>
+      <c r="G14" s="17">
+        <v>1513024</v>
+      </c>
+      <c r="H14" s="17">
+        <v>1539226</v>
+      </c>
+      <c r="I14" s="17">
         <v>-680697</v>
       </c>
-      <c r="E14" s="17">
+      <c r="J14" s="17">
         <v>2573069</v>
       </c>
-      <c r="F14" s="17">
+      <c r="K14" s="17">
         <v>2683124</v>
       </c>
-      <c r="G14" s="17">
+      <c r="L14" s="17">
         <v>1459672</v>
       </c>
-      <c r="H14" s="17">
+      <c r="M14" s="17">
         <v>992740</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" s="12" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
@@ -911,20 +1028,25 @@
       <c r="F15" s="13"/>
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B16" s="14" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15">
         <v>0</v>
       </c>
       <c r="E16" s="15">
-        <v>0</v>
+        <v>3333</v>
       </c>
       <c r="F16" s="15">
-        <v>0</v>
+        <v>1700</v>
       </c>
       <c r="G16" s="15">
         <v>0</v>
@@ -932,31 +1054,61 @@
       <c r="H16" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I16" s="15">
+        <v>0</v>
+      </c>
+      <c r="J16" s="15">
+        <v>0</v>
+      </c>
+      <c r="K16" s="15">
+        <v>0</v>
+      </c>
+      <c r="L16" s="15">
+        <v>0</v>
+      </c>
+      <c r="M16" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11">
-        <v>0</v>
+        <v>-16067</v>
       </c>
       <c r="E17" s="11">
+        <v>-19581</v>
+      </c>
+      <c r="F17" s="11">
+        <v>-28411</v>
+      </c>
+      <c r="G17" s="11">
+        <v>-10576</v>
+      </c>
+      <c r="H17" s="11">
+        <v>-16051</v>
+      </c>
+      <c r="I17" s="11">
+        <v>0</v>
+      </c>
+      <c r="J17" s="11">
         <v>-25455</v>
       </c>
-      <c r="F17" s="11">
-        <v>0</v>
-      </c>
-      <c r="G17" s="11">
+      <c r="K17" s="11">
+        <v>0</v>
+      </c>
+      <c r="L17" s="11">
         <v>-20555</v>
       </c>
-      <c r="H17" s="11">
+      <c r="M17" s="11">
         <v>-522</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="14" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15">
@@ -974,10 +1126,25 @@
       <c r="H18" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I18" s="15">
+        <v>0</v>
+      </c>
+      <c r="J18" s="15">
+        <v>0</v>
+      </c>
+      <c r="K18" s="15">
+        <v>0</v>
+      </c>
+      <c r="L18" s="15">
+        <v>0</v>
+      </c>
+      <c r="M18" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11">
@@ -995,10 +1162,25 @@
       <c r="H19" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I19" s="11">
+        <v>0</v>
+      </c>
+      <c r="J19" s="11">
+        <v>0</v>
+      </c>
+      <c r="K19" s="11">
+        <v>0</v>
+      </c>
+      <c r="L19" s="11">
+        <v>0</v>
+      </c>
+      <c r="M19" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" s="14" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="15">
@@ -1016,10 +1198,25 @@
       <c r="H20" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I20" s="15">
+        <v>0</v>
+      </c>
+      <c r="J20" s="15">
+        <v>0</v>
+      </c>
+      <c r="K20" s="15">
+        <v>0</v>
+      </c>
+      <c r="L20" s="15">
+        <v>0</v>
+      </c>
+      <c r="M20" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="11">
@@ -1037,10 +1234,25 @@
       <c r="H21" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I21" s="11">
+        <v>0</v>
+      </c>
+      <c r="J21" s="11">
+        <v>0</v>
+      </c>
+      <c r="K21" s="11">
+        <v>0</v>
+      </c>
+      <c r="L21" s="11">
+        <v>0</v>
+      </c>
+      <c r="M21" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" s="14" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C22" s="15"/>
       <c r="D22" s="15">
@@ -1058,94 +1270,169 @@
       <c r="H22" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I22" s="15">
+        <v>0</v>
+      </c>
+      <c r="J22" s="15">
+        <v>0</v>
+      </c>
+      <c r="K22" s="15">
+        <v>0</v>
+      </c>
+      <c r="L22" s="15">
+        <v>0</v>
+      </c>
+      <c r="M22" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11">
+        <v>0</v>
+      </c>
+      <c r="E23" s="11">
+        <v>0</v>
+      </c>
+      <c r="F23" s="11">
+        <v>0</v>
+      </c>
+      <c r="G23" s="11">
+        <v>0</v>
+      </c>
+      <c r="H23" s="11">
+        <v>615600</v>
+      </c>
+      <c r="I23" s="11">
         <v>29535</v>
       </c>
-      <c r="E23" s="11">
+      <c r="J23" s="11">
         <v>-645135</v>
       </c>
-      <c r="F23" s="11">
-        <v>0</v>
-      </c>
-      <c r="G23" s="11">
-        <v>0</v>
-      </c>
-      <c r="H23" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="K23" s="11">
+        <v>0</v>
+      </c>
+      <c r="L23" s="11">
+        <v>0</v>
+      </c>
+      <c r="M23" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="14" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C24" s="15"/>
       <c r="D24" s="15">
+        <v>0</v>
+      </c>
+      <c r="E24" s="15">
+        <v>0</v>
+      </c>
+      <c r="F24" s="15">
+        <v>0</v>
+      </c>
+      <c r="G24" s="15">
+        <v>0</v>
+      </c>
+      <c r="H24" s="15">
+        <v>0</v>
+      </c>
+      <c r="I24" s="15">
         <v>-76020</v>
       </c>
-      <c r="E24" s="15">
+      <c r="J24" s="15">
         <v>76020</v>
       </c>
-      <c r="F24" s="15">
-        <v>0</v>
-      </c>
-      <c r="G24" s="15">
-        <v>0</v>
-      </c>
-      <c r="H24" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="K24" s="15">
+        <v>0</v>
+      </c>
+      <c r="L24" s="15">
+        <v>0</v>
+      </c>
+      <c r="M24" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="11">
         <v>0</v>
       </c>
       <c r="E25" s="11">
+        <v>0</v>
+      </c>
+      <c r="F25" s="11">
+        <v>382747</v>
+      </c>
+      <c r="G25" s="11">
+        <v>0</v>
+      </c>
+      <c r="H25" s="11">
+        <v>0</v>
+      </c>
+      <c r="I25" s="11">
+        <v>0</v>
+      </c>
+      <c r="J25" s="11">
         <v>11851</v>
       </c>
-      <c r="F25" s="11">
-        <v>0</v>
-      </c>
-      <c r="G25" s="11">
-        <v>0</v>
-      </c>
-      <c r="H25" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="K25" s="11">
+        <v>0</v>
+      </c>
+      <c r="L25" s="11">
+        <v>0</v>
+      </c>
+      <c r="M25" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26" s="14" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C26" s="15"/>
       <c r="D26" s="15">
+        <v>0</v>
+      </c>
+      <c r="E26" s="15">
+        <v>-1150198</v>
+      </c>
+      <c r="F26" s="15">
+        <v>-1080051</v>
+      </c>
+      <c r="G26" s="15">
+        <v>-2130113</v>
+      </c>
+      <c r="H26" s="15">
+        <v>2054093</v>
+      </c>
+      <c r="I26" s="15">
         <v>76020</v>
       </c>
-      <c r="E26" s="15">
+      <c r="J26" s="15">
         <v>-1687998</v>
       </c>
-      <c r="F26" s="15">
+      <c r="K26" s="15">
         <v>-746398</v>
       </c>
-      <c r="G26" s="15">
+      <c r="L26" s="15">
         <v>199992</v>
       </c>
-      <c r="H26" s="15">
+      <c r="M26" s="15">
         <v>-44970</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C27" s="11"/>
       <c r="D27" s="11">
@@ -1163,10 +1450,25 @@
       <c r="H27" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I27" s="11">
+        <v>0</v>
+      </c>
+      <c r="J27" s="11">
+        <v>0</v>
+      </c>
+      <c r="K27" s="11">
+        <v>0</v>
+      </c>
+      <c r="L27" s="11">
+        <v>0</v>
+      </c>
+      <c r="M27" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28" s="14" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C28" s="15"/>
       <c r="D28" s="15">
@@ -1184,10 +1486,25 @@
       <c r="H28" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I28" s="15">
+        <v>0</v>
+      </c>
+      <c r="J28" s="15">
+        <v>0</v>
+      </c>
+      <c r="K28" s="15">
+        <v>0</v>
+      </c>
+      <c r="L28" s="15">
+        <v>0</v>
+      </c>
+      <c r="M28" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B29" s="10" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C29" s="11"/>
       <c r="D29" s="11">
@@ -1205,94 +1522,169 @@
       <c r="H29" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I29" s="11">
+        <v>0</v>
+      </c>
+      <c r="J29" s="11">
+        <v>0</v>
+      </c>
+      <c r="K29" s="11">
+        <v>0</v>
+      </c>
+      <c r="L29" s="11">
+        <v>0</v>
+      </c>
+      <c r="M29" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B30" s="14" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="C30" s="15"/>
       <c r="D30" s="15">
-        <v>0</v>
+        <v>578</v>
       </c>
       <c r="E30" s="15">
-        <v>0</v>
+        <v>-578</v>
       </c>
       <c r="F30" s="15">
+        <v>0</v>
+      </c>
+      <c r="G30" s="15">
+        <v>0</v>
+      </c>
+      <c r="H30" s="15">
+        <v>24844</v>
+      </c>
+      <c r="I30" s="15">
+        <v>0</v>
+      </c>
+      <c r="J30" s="15">
+        <v>0</v>
+      </c>
+      <c r="K30" s="15">
         <v>89971</v>
       </c>
-      <c r="G30" s="15">
+      <c r="L30" s="15">
         <v>-48603</v>
       </c>
-      <c r="H30" s="15">
+      <c r="M30" s="15">
         <v>48360</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B31" s="10" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C31" s="11"/>
       <c r="D31" s="11">
+        <v>19806</v>
+      </c>
+      <c r="E31" s="11">
+        <v>30292</v>
+      </c>
+      <c r="F31" s="11">
+        <v>54526</v>
+      </c>
+      <c r="G31" s="11">
+        <v>25444</v>
+      </c>
+      <c r="H31" s="11">
+        <v>123012</v>
+      </c>
+      <c r="I31" s="11">
         <v>166425</v>
       </c>
-      <c r="E31" s="11">
+      <c r="J31" s="11">
         <v>93549</v>
       </c>
-      <c r="F31" s="11">
+      <c r="K31" s="11">
         <v>158484</v>
       </c>
-      <c r="G31" s="11">
+      <c r="L31" s="11">
         <v>268494</v>
       </c>
-      <c r="H31" s="11">
+      <c r="M31" s="11">
         <v>195174</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B32" s="16" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="C32" s="17"/>
       <c r="D32" s="17">
+        <v>4317</v>
+      </c>
+      <c r="E32" s="17">
+        <v>-1136732</v>
+      </c>
+      <c r="F32" s="17">
+        <v>-669489</v>
+      </c>
+      <c r="G32" s="17">
+        <v>-2115245</v>
+      </c>
+      <c r="H32" s="17">
+        <v>2801498</v>
+      </c>
+      <c r="I32" s="17">
         <v>195960</v>
       </c>
-      <c r="E32" s="17">
+      <c r="J32" s="17">
         <v>-2177168</v>
       </c>
-      <c r="F32" s="17">
+      <c r="K32" s="17">
         <v>-497943</v>
       </c>
-      <c r="G32" s="17">
+      <c r="L32" s="17">
         <v>399328</v>
       </c>
-      <c r="H32" s="17">
+      <c r="M32" s="17">
         <v>198042</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B33" s="18" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="C33" s="19"/>
       <c r="D33" s="19">
+        <v>595786</v>
+      </c>
+      <c r="E33" s="19">
+        <v>-115318</v>
+      </c>
+      <c r="F33" s="19">
+        <v>491416</v>
+      </c>
+      <c r="G33" s="19">
+        <v>-602221</v>
+      </c>
+      <c r="H33" s="19">
+        <v>4340724</v>
+      </c>
+      <c r="I33" s="19">
         <v>-484737</v>
       </c>
-      <c r="E33" s="19">
+      <c r="J33" s="19">
         <v>395901</v>
       </c>
-      <c r="F33" s="19">
+      <c r="K33" s="19">
         <v>2185181</v>
       </c>
-      <c r="G33" s="19">
+      <c r="L33" s="19">
         <v>1859000</v>
       </c>
-      <c r="H33" s="19">
+      <c r="M33" s="19">
         <v>1190782</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B34" s="12" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C34" s="13"/>
       <c r="D34" s="13"/>
@@ -1300,10 +1692,15 @@
       <c r="F34" s="13"/>
       <c r="G34" s="13"/>
       <c r="H34" s="13"/>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I34" s="13"/>
+      <c r="J34" s="13"/>
+      <c r="K34" s="13"/>
+      <c r="L34" s="13"/>
+      <c r="M34" s="13"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B35" s="14" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C35" s="15"/>
       <c r="D35" s="15">
@@ -1321,73 +1718,133 @@
       <c r="H35" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I35" s="15">
+        <v>0</v>
+      </c>
+      <c r="J35" s="15">
+        <v>0</v>
+      </c>
+      <c r="K35" s="15">
+        <v>0</v>
+      </c>
+      <c r="L35" s="15">
+        <v>0</v>
+      </c>
+      <c r="M35" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B36" s="10" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="C36" s="11"/>
       <c r="D36" s="11" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+      <c r="I36" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J36" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="K36" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="L36" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="M36" s="11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B37" s="14" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="C37" s="15"/>
       <c r="D37" s="15">
+        <v>0</v>
+      </c>
+      <c r="E37" s="15">
+        <v>0</v>
+      </c>
+      <c r="F37" s="15">
+        <v>224434</v>
+      </c>
+      <c r="G37" s="15">
+        <v>0</v>
+      </c>
+      <c r="H37" s="15">
+        <v>92772</v>
+      </c>
+      <c r="I37" s="15">
         <v>-92772</v>
       </c>
-      <c r="E37" s="15">
+      <c r="J37" s="15">
         <v>149376</v>
       </c>
-      <c r="F37" s="15">
-        <v>0</v>
-      </c>
-      <c r="G37" s="15">
+      <c r="K37" s="15">
+        <v>0</v>
+      </c>
+      <c r="L37" s="15">
         <v>80512</v>
       </c>
-      <c r="H37" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M37" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B38" s="10" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="C38" s="11"/>
       <c r="D38" s="11">
+        <v>0</v>
+      </c>
+      <c r="E38" s="11">
+        <v>0</v>
+      </c>
+      <c r="F38" s="11">
+        <v>-290605</v>
+      </c>
+      <c r="G38" s="11">
+        <v>0</v>
+      </c>
+      <c r="H38" s="11">
+        <v>-63237</v>
+      </c>
+      <c r="I38" s="11">
         <v>63237</v>
       </c>
-      <c r="E38" s="11">
+      <c r="J38" s="11">
         <v>-147929</v>
       </c>
-      <c r="F38" s="11">
-        <v>0</v>
-      </c>
-      <c r="G38" s="11">
+      <c r="K38" s="11">
+        <v>0</v>
+      </c>
+      <c r="L38" s="11">
         <v>-14512</v>
       </c>
-      <c r="H38" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M38" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B39" s="14" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="C39" s="15"/>
       <c r="D39" s="15">
@@ -1405,52 +1862,97 @@
       <c r="H39" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I39" s="15">
+        <v>0</v>
+      </c>
+      <c r="J39" s="15">
+        <v>0</v>
+      </c>
+      <c r="K39" s="15">
+        <v>0</v>
+      </c>
+      <c r="L39" s="15">
+        <v>0</v>
+      </c>
+      <c r="M39" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B40" s="10" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="C40" s="11"/>
       <c r="D40" s="11">
-        <v>0</v>
+        <v>-17160</v>
       </c>
       <c r="E40" s="11">
+        <v>0</v>
+      </c>
+      <c r="F40" s="11">
         <v>-17160</v>
       </c>
-      <c r="F40" s="11">
-        <v>0</v>
-      </c>
       <c r="G40" s="11">
+        <v>0</v>
+      </c>
+      <c r="H40" s="11">
         <v>-17160</v>
       </c>
-      <c r="H40" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I40" s="11">
+        <v>0</v>
+      </c>
+      <c r="J40" s="11">
+        <v>-17160</v>
+      </c>
+      <c r="K40" s="11">
+        <v>0</v>
+      </c>
+      <c r="L40" s="11">
+        <v>-17160</v>
+      </c>
+      <c r="M40" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B41" s="14" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="C41" s="15"/>
       <c r="D41" s="15">
-        <v>0</v>
+        <v>-20793</v>
       </c>
       <c r="E41" s="15">
+        <v>321</v>
+      </c>
+      <c r="F41" s="15">
+        <v>-21748</v>
+      </c>
+      <c r="G41" s="15">
+        <v>0</v>
+      </c>
+      <c r="H41" s="15">
+        <v>-23046</v>
+      </c>
+      <c r="I41" s="15">
+        <v>0</v>
+      </c>
+      <c r="J41" s="15">
         <v>-24323</v>
       </c>
-      <c r="F41" s="15">
-        <v>0</v>
-      </c>
-      <c r="G41" s="15">
+      <c r="K41" s="15">
+        <v>0</v>
+      </c>
+      <c r="L41" s="15">
         <v>-25620</v>
       </c>
-      <c r="H41" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M41" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B42" s="10" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="C42" s="11"/>
       <c r="D42" s="11">
@@ -1468,10 +1970,25 @@
       <c r="H42" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I42" s="11">
+        <v>0</v>
+      </c>
+      <c r="J42" s="11">
+        <v>0</v>
+      </c>
+      <c r="K42" s="11">
+        <v>0</v>
+      </c>
+      <c r="L42" s="11">
+        <v>0</v>
+      </c>
+      <c r="M42" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B43" s="14" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="C43" s="15"/>
       <c r="D43" s="15">
@@ -1489,10 +2006,25 @@
       <c r="H43" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I43" s="15">
+        <v>0</v>
+      </c>
+      <c r="J43" s="15">
+        <v>0</v>
+      </c>
+      <c r="K43" s="15">
+        <v>0</v>
+      </c>
+      <c r="L43" s="15">
+        <v>0</v>
+      </c>
+      <c r="M43" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B44" s="10" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C44" s="11"/>
       <c r="D44" s="11">
@@ -1510,10 +2042,25 @@
       <c r="H44" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I44" s="11">
+        <v>0</v>
+      </c>
+      <c r="J44" s="11">
+        <v>0</v>
+      </c>
+      <c r="K44" s="11">
+        <v>0</v>
+      </c>
+      <c r="L44" s="11">
+        <v>0</v>
+      </c>
+      <c r="M44" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B45" s="14" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="C45" s="15"/>
       <c r="D45" s="15">
@@ -1531,10 +2078,25 @@
       <c r="H45" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I45" s="15">
+        <v>0</v>
+      </c>
+      <c r="J45" s="15">
+        <v>0</v>
+      </c>
+      <c r="K45" s="15">
+        <v>0</v>
+      </c>
+      <c r="L45" s="15">
+        <v>0</v>
+      </c>
+      <c r="M45" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B46" s="10" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="C46" s="11"/>
       <c r="D46" s="11">
@@ -1552,10 +2114,25 @@
       <c r="H46" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I46" s="11">
+        <v>0</v>
+      </c>
+      <c r="J46" s="11">
+        <v>0</v>
+      </c>
+      <c r="K46" s="11">
+        <v>0</v>
+      </c>
+      <c r="L46" s="11">
+        <v>0</v>
+      </c>
+      <c r="M46" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B47" s="14" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C47" s="15"/>
       <c r="D47" s="15">
@@ -1573,10 +2150,25 @@
       <c r="H47" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I47" s="15">
+        <v>0</v>
+      </c>
+      <c r="J47" s="15">
+        <v>0</v>
+      </c>
+      <c r="K47" s="15">
+        <v>0</v>
+      </c>
+      <c r="L47" s="15">
+        <v>0</v>
+      </c>
+      <c r="M47" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="C48" s="11"/>
       <c r="D48" s="11">
@@ -1594,10 +2186,25 @@
       <c r="H48" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I48" s="11">
+        <v>0</v>
+      </c>
+      <c r="J48" s="11">
+        <v>0</v>
+      </c>
+      <c r="K48" s="11">
+        <v>0</v>
+      </c>
+      <c r="L48" s="11">
+        <v>0</v>
+      </c>
+      <c r="M48" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B49" s="14" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="C49" s="15"/>
       <c r="D49" s="15">
@@ -1615,136 +2222,241 @@
       <c r="H49" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I49" s="15">
+        <v>0</v>
+      </c>
+      <c r="J49" s="15">
+        <v>0</v>
+      </c>
+      <c r="K49" s="15">
+        <v>0</v>
+      </c>
+      <c r="L49" s="15">
+        <v>0</v>
+      </c>
+      <c r="M49" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B50" s="10" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="C50" s="11"/>
       <c r="D50" s="11">
+        <v>-1351476</v>
+      </c>
+      <c r="E50" s="11">
+        <v>-94</v>
+      </c>
+      <c r="F50" s="11">
+        <v>-27006</v>
+      </c>
+      <c r="G50" s="11">
+        <v>0</v>
+      </c>
+      <c r="H50" s="11">
+        <v>-3131441</v>
+      </c>
+      <c r="I50" s="11">
         <v>-24148</v>
       </c>
-      <c r="E50" s="11">
+      <c r="J50" s="11">
         <v>-341</v>
       </c>
-      <c r="F50" s="11">
-        <v>0</v>
-      </c>
-      <c r="G50" s="11">
+      <c r="K50" s="11">
+        <v>0</v>
+      </c>
+      <c r="L50" s="11">
         <v>-1999558</v>
       </c>
-      <c r="H50" s="11">
+      <c r="M50" s="11">
         <v>-2856701</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B51" s="16" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="C51" s="17"/>
       <c r="D51" s="17">
+        <v>-1389429</v>
+      </c>
+      <c r="E51" s="17">
+        <v>227</v>
+      </c>
+      <c r="F51" s="17">
+        <v>-132085</v>
+      </c>
+      <c r="G51" s="17">
+        <v>0</v>
+      </c>
+      <c r="H51" s="17">
+        <v>-3142112</v>
+      </c>
+      <c r="I51" s="17">
         <v>-53683</v>
       </c>
-      <c r="E51" s="17">
+      <c r="J51" s="17">
         <v>-40377</v>
       </c>
-      <c r="F51" s="17">
-        <v>0</v>
-      </c>
-      <c r="G51" s="17">
+      <c r="K51" s="17">
+        <v>0</v>
+      </c>
+      <c r="L51" s="17">
         <v>-1976338</v>
       </c>
-      <c r="H51" s="17">
+      <c r="M51" s="17">
         <v>-2856701</v>
       </c>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B52" s="18" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="C52" s="19"/>
       <c r="D52" s="19">
+        <v>-793643</v>
+      </c>
+      <c r="E52" s="19">
+        <v>-115091</v>
+      </c>
+      <c r="F52" s="19">
+        <v>359331</v>
+      </c>
+      <c r="G52" s="19">
+        <v>-602221</v>
+      </c>
+      <c r="H52" s="19">
+        <v>1198612</v>
+      </c>
+      <c r="I52" s="19">
         <v>-538420</v>
       </c>
-      <c r="E52" s="19">
+      <c r="J52" s="19">
         <v>355524</v>
       </c>
-      <c r="F52" s="19">
+      <c r="K52" s="19">
         <v>2185181</v>
       </c>
-      <c r="G52" s="19">
+      <c r="L52" s="19">
         <v>-117338</v>
       </c>
-      <c r="H52" s="19">
+      <c r="M52" s="19">
         <v>-1665919</v>
       </c>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B53" s="14" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="C53" s="15"/>
       <c r="D53" s="15">
+        <v>1542837</v>
+      </c>
+      <c r="E53" s="15">
+        <v>628737</v>
+      </c>
+      <c r="F53" s="15">
+        <v>539172</v>
+      </c>
+      <c r="G53" s="15">
+        <v>819625</v>
+      </c>
+      <c r="H53" s="15">
+        <v>210560</v>
+      </c>
+      <c r="I53" s="15">
         <v>1421181</v>
       </c>
-      <c r="E53" s="15">
+      <c r="J53" s="15">
         <v>882761</v>
       </c>
-      <c r="F53" s="15">
+      <c r="K53" s="15">
         <v>1224333</v>
       </c>
-      <c r="G53" s="15">
+      <c r="L53" s="15">
         <v>3409514</v>
       </c>
-      <c r="H53" s="15">
+      <c r="M53" s="15">
         <v>3292993</v>
       </c>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B54" s="10" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C54" s="11"/>
       <c r="D54" s="11">
-        <v>0</v>
+        <v>29543</v>
       </c>
       <c r="E54" s="11">
+        <v>25526</v>
+      </c>
+      <c r="F54" s="11">
+        <v>-78878</v>
+      </c>
+      <c r="G54" s="11">
+        <v>-6844</v>
+      </c>
+      <c r="H54" s="11">
+        <v>12009</v>
+      </c>
+      <c r="I54" s="11">
+        <v>0</v>
+      </c>
+      <c r="J54" s="11">
         <v>-13952</v>
       </c>
-      <c r="F54" s="11">
-        <v>0</v>
-      </c>
-      <c r="G54" s="11">
+      <c r="K54" s="11">
+        <v>0</v>
+      </c>
+      <c r="L54" s="11">
         <v>817</v>
       </c>
-      <c r="H54" s="11">
+      <c r="M54" s="11">
         <v>81686</v>
       </c>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B55" s="16" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="C55" s="17"/>
       <c r="D55" s="17">
+        <v>628737</v>
+      </c>
+      <c r="E55" s="17">
+        <v>539172</v>
+      </c>
+      <c r="F55" s="17">
+        <v>819625</v>
+      </c>
+      <c r="G55" s="17">
+        <v>210560</v>
+      </c>
+      <c r="H55" s="17">
+        <v>1421181</v>
+      </c>
+      <c r="I55" s="17">
         <v>882761</v>
       </c>
-      <c r="E55" s="17">
+      <c r="J55" s="17">
         <v>1224333</v>
       </c>
-      <c r="F55" s="17">
+      <c r="K55" s="17">
         <v>3409514</v>
       </c>
-      <c r="G55" s="17">
+      <c r="L55" s="17">
         <v>3292993</v>
       </c>
-      <c r="H55" s="17">
+      <c r="M55" s="17">
         <v>1708760</v>
       </c>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B56" s="10" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="C56" s="11"/>
       <c r="D56" s="11">
@@ -1762,8 +2474,23 @@
       <c r="H56" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I56" s="11">
+        <v>0</v>
+      </c>
+      <c r="J56" s="11">
+        <v>0</v>
+      </c>
+      <c r="K56" s="11">
+        <v>0</v>
+      </c>
+      <c r="L56" s="11">
+        <v>0</v>
+      </c>
+      <c r="M56" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -1771,6 +2498,11 @@
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+      <c r="M57" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/database/industries/siman/save/cashflow/quarterly.xlsx
+++ b/database/industries/siman/save/cashflow/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\siman\save\cashflow\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\siman\save\cashflow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E09226E7-A415-452A-BC99-0AB180A60FD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D566219E-78B8-4CDE-A76B-A979B96284CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="73">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,6 +37,21 @@
     <t>دوره مالی</t>
   </si>
   <si>
+    <t>فصل دوم منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1399/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1400/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1400/06</t>
+  </si>
+  <si>
     <t>فصل سوم منتهی به 1400/09</t>
   </si>
   <si>
@@ -55,10 +70,25 @@
     <t>تاریخ انتشار</t>
   </si>
   <si>
-    <t>1401-11-01 (2)</t>
-  </si>
-  <si>
-    <t>1401-11-01 (8)</t>
+    <t>1400-08-29 (4)</t>
+  </si>
+  <si>
+    <t>1400-11-02 (2)</t>
+  </si>
+  <si>
+    <t>1401-02-25 (12)</t>
+  </si>
+  <si>
+    <t>1401-05-01 (3)</t>
+  </si>
+  <si>
+    <t>1401-08-30 (4)</t>
+  </si>
+  <si>
+    <t>1401-11-19 (3)</t>
+  </si>
+  <si>
+    <t>1401-11-19 (9)</t>
   </si>
   <si>
     <t>1401-05-01</t>
@@ -67,7 +97,7 @@
     <t>1401-08-30 (2)</t>
   </si>
   <si>
-    <t>1401-11-01</t>
+    <t>1401-11-19 (2)</t>
   </si>
   <si>
     <t>فعالیتهای عملیاتی</t>
@@ -692,20 +722,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:H57"/>
+  <dimension ref="B1:M57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="74" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="4" width="29" customWidth="1"/>
-    <col min="5" max="5" width="31" customWidth="1"/>
-    <col min="6" max="8" width="29" customWidth="1"/>
+    <col min="4" max="5" width="29" customWidth="1"/>
+    <col min="6" max="6" width="31" customWidth="1"/>
+    <col min="7" max="9" width="29" customWidth="1"/>
+    <col min="10" max="10" width="31" customWidth="1"/>
+    <col min="11" max="13" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -713,8 +745,13 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -724,8 +761,13 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -735,8 +777,13 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -744,8 +791,13 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" spans="2:13" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -755,8 +807,13 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-    </row>
-    <row r="6" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+    </row>
+    <row r="6" spans="2:13" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -766,8 +823,13 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -775,8 +837,13 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+    </row>
+    <row r="8" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -796,29 +863,59 @@
       <c r="H8" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -826,10 +923,15 @@
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -837,73 +939,123 @@
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" s="14" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15">
+        <v>667469</v>
+      </c>
+      <c r="E12" s="15">
+        <v>1213811</v>
+      </c>
+      <c r="F12" s="15">
+        <v>1099830</v>
+      </c>
+      <c r="G12" s="15">
+        <v>1513024</v>
+      </c>
+      <c r="H12" s="15">
+        <v>1717640</v>
+      </c>
+      <c r="I12" s="15">
         <v>-333461</v>
       </c>
-      <c r="E12" s="15">
+      <c r="J12" s="15">
         <v>2436389</v>
       </c>
-      <c r="F12" s="15">
+      <c r="K12" s="15">
         <v>2683124</v>
       </c>
-      <c r="G12" s="15">
+      <c r="L12" s="15">
         <v>1739073</v>
       </c>
-      <c r="H12" s="15">
+      <c r="M12" s="15">
         <v>1151190</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11">
+        <v>-76000</v>
+      </c>
+      <c r="E13" s="11">
+        <v>-192397</v>
+      </c>
+      <c r="F13" s="11">
+        <v>61075</v>
+      </c>
+      <c r="G13" s="11">
+        <v>0</v>
+      </c>
+      <c r="H13" s="11">
+        <v>-178414</v>
+      </c>
+      <c r="I13" s="11">
         <v>-347236</v>
       </c>
-      <c r="E13" s="11">
+      <c r="J13" s="11">
         <v>136680</v>
       </c>
-      <c r="F13" s="11">
-        <v>0</v>
-      </c>
-      <c r="G13" s="11">
+      <c r="K13" s="11">
+        <v>0</v>
+      </c>
+      <c r="L13" s="11">
         <v>-279401</v>
       </c>
-      <c r="H13" s="11">
+      <c r="M13" s="11">
         <v>-158450</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" s="16" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C14" s="17"/>
       <c r="D14" s="17">
+        <v>591469</v>
+      </c>
+      <c r="E14" s="17">
+        <v>1021414</v>
+      </c>
+      <c r="F14" s="17">
+        <v>1160905</v>
+      </c>
+      <c r="G14" s="17">
+        <v>1513024</v>
+      </c>
+      <c r="H14" s="17">
+        <v>1539226</v>
+      </c>
+      <c r="I14" s="17">
         <v>-680697</v>
       </c>
-      <c r="E14" s="17">
+      <c r="J14" s="17">
         <v>2573069</v>
       </c>
-      <c r="F14" s="17">
+      <c r="K14" s="17">
         <v>2683124</v>
       </c>
-      <c r="G14" s="17">
+      <c r="L14" s="17">
         <v>1459672</v>
       </c>
-      <c r="H14" s="17">
+      <c r="M14" s="17">
         <v>992740</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" s="12" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
@@ -911,20 +1063,25 @@
       <c r="F15" s="13"/>
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B16" s="14" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15">
         <v>0</v>
       </c>
       <c r="E16" s="15">
-        <v>0</v>
+        <v>3333</v>
       </c>
       <c r="F16" s="15">
-        <v>0</v>
+        <v>1700</v>
       </c>
       <c r="G16" s="15">
         <v>0</v>
@@ -932,31 +1089,61 @@
       <c r="H16" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I16" s="15">
+        <v>0</v>
+      </c>
+      <c r="J16" s="15">
+        <v>0</v>
+      </c>
+      <c r="K16" s="15">
+        <v>0</v>
+      </c>
+      <c r="L16" s="15">
+        <v>0</v>
+      </c>
+      <c r="M16" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11">
-        <v>0</v>
+        <v>-16067</v>
       </c>
       <c r="E17" s="11">
+        <v>-19581</v>
+      </c>
+      <c r="F17" s="11">
+        <v>-28411</v>
+      </c>
+      <c r="G17" s="11">
+        <v>-10576</v>
+      </c>
+      <c r="H17" s="11">
+        <v>-16051</v>
+      </c>
+      <c r="I17" s="11">
+        <v>0</v>
+      </c>
+      <c r="J17" s="11">
         <v>-25455</v>
       </c>
-      <c r="F17" s="11">
-        <v>0</v>
-      </c>
-      <c r="G17" s="11">
+      <c r="K17" s="11">
+        <v>0</v>
+      </c>
+      <c r="L17" s="11">
         <v>-20555</v>
       </c>
-      <c r="H17" s="11">
+      <c r="M17" s="11">
         <v>-522</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="14" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15">
@@ -974,10 +1161,25 @@
       <c r="H18" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I18" s="15">
+        <v>0</v>
+      </c>
+      <c r="J18" s="15">
+        <v>0</v>
+      </c>
+      <c r="K18" s="15">
+        <v>0</v>
+      </c>
+      <c r="L18" s="15">
+        <v>0</v>
+      </c>
+      <c r="M18" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11">
@@ -995,10 +1197,25 @@
       <c r="H19" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I19" s="11">
+        <v>0</v>
+      </c>
+      <c r="J19" s="11">
+        <v>0</v>
+      </c>
+      <c r="K19" s="11">
+        <v>0</v>
+      </c>
+      <c r="L19" s="11">
+        <v>0</v>
+      </c>
+      <c r="M19" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" s="14" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="15">
@@ -1016,10 +1233,25 @@
       <c r="H20" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I20" s="15">
+        <v>0</v>
+      </c>
+      <c r="J20" s="15">
+        <v>0</v>
+      </c>
+      <c r="K20" s="15">
+        <v>0</v>
+      </c>
+      <c r="L20" s="15">
+        <v>0</v>
+      </c>
+      <c r="M20" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="11">
@@ -1037,10 +1269,25 @@
       <c r="H21" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I21" s="11">
+        <v>0</v>
+      </c>
+      <c r="J21" s="11">
+        <v>0</v>
+      </c>
+      <c r="K21" s="11">
+        <v>0</v>
+      </c>
+      <c r="L21" s="11">
+        <v>0</v>
+      </c>
+      <c r="M21" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" s="14" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C22" s="15"/>
       <c r="D22" s="15">
@@ -1058,94 +1305,169 @@
       <c r="H22" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I22" s="15">
+        <v>0</v>
+      </c>
+      <c r="J22" s="15">
+        <v>0</v>
+      </c>
+      <c r="K22" s="15">
+        <v>0</v>
+      </c>
+      <c r="L22" s="15">
+        <v>0</v>
+      </c>
+      <c r="M22" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11">
+        <v>0</v>
+      </c>
+      <c r="E23" s="11">
+        <v>0</v>
+      </c>
+      <c r="F23" s="11">
+        <v>0</v>
+      </c>
+      <c r="G23" s="11">
+        <v>0</v>
+      </c>
+      <c r="H23" s="11">
+        <v>615600</v>
+      </c>
+      <c r="I23" s="11">
         <v>29535</v>
       </c>
-      <c r="E23" s="11">
+      <c r="J23" s="11">
         <v>-645135</v>
       </c>
-      <c r="F23" s="11">
-        <v>0</v>
-      </c>
-      <c r="G23" s="11">
-        <v>0</v>
-      </c>
-      <c r="H23" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="K23" s="11">
+        <v>0</v>
+      </c>
+      <c r="L23" s="11">
+        <v>0</v>
+      </c>
+      <c r="M23" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="14" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C24" s="15"/>
       <c r="D24" s="15">
+        <v>0</v>
+      </c>
+      <c r="E24" s="15">
+        <v>0</v>
+      </c>
+      <c r="F24" s="15">
+        <v>0</v>
+      </c>
+      <c r="G24" s="15">
+        <v>0</v>
+      </c>
+      <c r="H24" s="15">
+        <v>0</v>
+      </c>
+      <c r="I24" s="15">
         <v>-76020</v>
       </c>
-      <c r="E24" s="15">
+      <c r="J24" s="15">
         <v>76020</v>
       </c>
-      <c r="F24" s="15">
-        <v>0</v>
-      </c>
-      <c r="G24" s="15">
-        <v>0</v>
-      </c>
-      <c r="H24" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="K24" s="15">
+        <v>0</v>
+      </c>
+      <c r="L24" s="15">
+        <v>0</v>
+      </c>
+      <c r="M24" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="11">
         <v>0</v>
       </c>
       <c r="E25" s="11">
+        <v>0</v>
+      </c>
+      <c r="F25" s="11">
+        <v>382747</v>
+      </c>
+      <c r="G25" s="11">
+        <v>0</v>
+      </c>
+      <c r="H25" s="11">
+        <v>0</v>
+      </c>
+      <c r="I25" s="11">
+        <v>0</v>
+      </c>
+      <c r="J25" s="11">
         <v>11851</v>
       </c>
-      <c r="F25" s="11">
-        <v>0</v>
-      </c>
-      <c r="G25" s="11">
-        <v>0</v>
-      </c>
-      <c r="H25" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="K25" s="11">
+        <v>0</v>
+      </c>
+      <c r="L25" s="11">
+        <v>0</v>
+      </c>
+      <c r="M25" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26" s="14" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C26" s="15"/>
       <c r="D26" s="15">
+        <v>0</v>
+      </c>
+      <c r="E26" s="15">
+        <v>-1150198</v>
+      </c>
+      <c r="F26" s="15">
+        <v>-1080051</v>
+      </c>
+      <c r="G26" s="15">
+        <v>-2130113</v>
+      </c>
+      <c r="H26" s="15">
+        <v>2054093</v>
+      </c>
+      <c r="I26" s="15">
         <v>76020</v>
       </c>
-      <c r="E26" s="15">
+      <c r="J26" s="15">
         <v>-1687998</v>
       </c>
-      <c r="F26" s="15">
+      <c r="K26" s="15">
         <v>-746398</v>
       </c>
-      <c r="G26" s="15">
+      <c r="L26" s="15">
         <v>199992</v>
       </c>
-      <c r="H26" s="15">
+      <c r="M26" s="15">
         <v>-44970</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C27" s="11"/>
       <c r="D27" s="11">
@@ -1163,10 +1485,25 @@
       <c r="H27" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I27" s="11">
+        <v>0</v>
+      </c>
+      <c r="J27" s="11">
+        <v>0</v>
+      </c>
+      <c r="K27" s="11">
+        <v>0</v>
+      </c>
+      <c r="L27" s="11">
+        <v>0</v>
+      </c>
+      <c r="M27" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28" s="14" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C28" s="15"/>
       <c r="D28" s="15">
@@ -1184,10 +1521,25 @@
       <c r="H28" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I28" s="15">
+        <v>0</v>
+      </c>
+      <c r="J28" s="15">
+        <v>0</v>
+      </c>
+      <c r="K28" s="15">
+        <v>0</v>
+      </c>
+      <c r="L28" s="15">
+        <v>0</v>
+      </c>
+      <c r="M28" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B29" s="10" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C29" s="11"/>
       <c r="D29" s="11">
@@ -1205,94 +1557,169 @@
       <c r="H29" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I29" s="11">
+        <v>0</v>
+      </c>
+      <c r="J29" s="11">
+        <v>0</v>
+      </c>
+      <c r="K29" s="11">
+        <v>0</v>
+      </c>
+      <c r="L29" s="11">
+        <v>0</v>
+      </c>
+      <c r="M29" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B30" s="14" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="C30" s="15"/>
       <c r="D30" s="15">
-        <v>0</v>
+        <v>578</v>
       </c>
       <c r="E30" s="15">
-        <v>0</v>
+        <v>-578</v>
       </c>
       <c r="F30" s="15">
+        <v>0</v>
+      </c>
+      <c r="G30" s="15">
+        <v>0</v>
+      </c>
+      <c r="H30" s="15">
+        <v>24844</v>
+      </c>
+      <c r="I30" s="15">
+        <v>0</v>
+      </c>
+      <c r="J30" s="15">
+        <v>0</v>
+      </c>
+      <c r="K30" s="15">
         <v>89971</v>
       </c>
-      <c r="G30" s="15">
+      <c r="L30" s="15">
         <v>-48603</v>
       </c>
-      <c r="H30" s="15">
+      <c r="M30" s="15">
         <v>48360</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B31" s="10" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C31" s="11"/>
       <c r="D31" s="11">
+        <v>19806</v>
+      </c>
+      <c r="E31" s="11">
+        <v>30292</v>
+      </c>
+      <c r="F31" s="11">
+        <v>54526</v>
+      </c>
+      <c r="G31" s="11">
+        <v>25444</v>
+      </c>
+      <c r="H31" s="11">
+        <v>123012</v>
+      </c>
+      <c r="I31" s="11">
         <v>166425</v>
       </c>
-      <c r="E31" s="11">
+      <c r="J31" s="11">
         <v>93549</v>
       </c>
-      <c r="F31" s="11">
+      <c r="K31" s="11">
         <v>158484</v>
       </c>
-      <c r="G31" s="11">
+      <c r="L31" s="11">
         <v>268494</v>
       </c>
-      <c r="H31" s="11">
+      <c r="M31" s="11">
         <v>195174</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B32" s="16" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="C32" s="17"/>
       <c r="D32" s="17">
+        <v>4317</v>
+      </c>
+      <c r="E32" s="17">
+        <v>-1136732</v>
+      </c>
+      <c r="F32" s="17">
+        <v>-669489</v>
+      </c>
+      <c r="G32" s="17">
+        <v>-2115245</v>
+      </c>
+      <c r="H32" s="17">
+        <v>2801498</v>
+      </c>
+      <c r="I32" s="17">
         <v>195960</v>
       </c>
-      <c r="E32" s="17">
+      <c r="J32" s="17">
         <v>-2177168</v>
       </c>
-      <c r="F32" s="17">
+      <c r="K32" s="17">
         <v>-497943</v>
       </c>
-      <c r="G32" s="17">
+      <c r="L32" s="17">
         <v>399328</v>
       </c>
-      <c r="H32" s="17">
+      <c r="M32" s="17">
         <v>198042</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B33" s="18" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="C33" s="19"/>
       <c r="D33" s="19">
+        <v>595786</v>
+      </c>
+      <c r="E33" s="19">
+        <v>-115318</v>
+      </c>
+      <c r="F33" s="19">
+        <v>491416</v>
+      </c>
+      <c r="G33" s="19">
+        <v>-602221</v>
+      </c>
+      <c r="H33" s="19">
+        <v>4340724</v>
+      </c>
+      <c r="I33" s="19">
         <v>-484737</v>
       </c>
-      <c r="E33" s="19">
+      <c r="J33" s="19">
         <v>395901</v>
       </c>
-      <c r="F33" s="19">
+      <c r="K33" s="19">
         <v>2185181</v>
       </c>
-      <c r="G33" s="19">
+      <c r="L33" s="19">
         <v>1859000</v>
       </c>
-      <c r="H33" s="19">
+      <c r="M33" s="19">
         <v>1190782</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B34" s="12" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C34" s="13"/>
       <c r="D34" s="13"/>
@@ -1300,10 +1727,15 @@
       <c r="F34" s="13"/>
       <c r="G34" s="13"/>
       <c r="H34" s="13"/>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I34" s="13"/>
+      <c r="J34" s="13"/>
+      <c r="K34" s="13"/>
+      <c r="L34" s="13"/>
+      <c r="M34" s="13"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B35" s="14" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C35" s="15"/>
       <c r="D35" s="15">
@@ -1321,73 +1753,133 @@
       <c r="H35" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I35" s="15">
+        <v>0</v>
+      </c>
+      <c r="J35" s="15">
+        <v>0</v>
+      </c>
+      <c r="K35" s="15">
+        <v>0</v>
+      </c>
+      <c r="L35" s="15">
+        <v>0</v>
+      </c>
+      <c r="M35" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B36" s="10" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="C36" s="11"/>
       <c r="D36" s="11" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+      <c r="I36" s="11">
+        <v>0</v>
+      </c>
+      <c r="J36" s="11">
+        <v>0</v>
+      </c>
+      <c r="K36" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="L36" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="M36" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B37" s="14" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="C37" s="15"/>
       <c r="D37" s="15">
+        <v>0</v>
+      </c>
+      <c r="E37" s="15">
+        <v>0</v>
+      </c>
+      <c r="F37" s="15">
+        <v>224434</v>
+      </c>
+      <c r="G37" s="15">
+        <v>0</v>
+      </c>
+      <c r="H37" s="15">
+        <v>92772</v>
+      </c>
+      <c r="I37" s="15">
         <v>-92772</v>
       </c>
-      <c r="E37" s="15">
+      <c r="J37" s="15">
         <v>149376</v>
       </c>
-      <c r="F37" s="15">
-        <v>0</v>
-      </c>
-      <c r="G37" s="15">
+      <c r="K37" s="15">
+        <v>0</v>
+      </c>
+      <c r="L37" s="15">
         <v>80512</v>
       </c>
-      <c r="H37" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M37" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B38" s="10" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="C38" s="11"/>
       <c r="D38" s="11">
+        <v>0</v>
+      </c>
+      <c r="E38" s="11">
+        <v>0</v>
+      </c>
+      <c r="F38" s="11">
+        <v>-290605</v>
+      </c>
+      <c r="G38" s="11">
+        <v>0</v>
+      </c>
+      <c r="H38" s="11">
+        <v>-63237</v>
+      </c>
+      <c r="I38" s="11">
         <v>63237</v>
       </c>
-      <c r="E38" s="11">
+      <c r="J38" s="11">
         <v>-147929</v>
       </c>
-      <c r="F38" s="11">
-        <v>0</v>
-      </c>
-      <c r="G38" s="11">
+      <c r="K38" s="11">
+        <v>0</v>
+      </c>
+      <c r="L38" s="11">
         <v>-14512</v>
       </c>
-      <c r="H38" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M38" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B39" s="14" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="C39" s="15"/>
       <c r="D39" s="15">
@@ -1405,52 +1897,97 @@
       <c r="H39" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I39" s="15">
+        <v>0</v>
+      </c>
+      <c r="J39" s="15">
+        <v>0</v>
+      </c>
+      <c r="K39" s="15">
+        <v>0</v>
+      </c>
+      <c r="L39" s="15">
+        <v>0</v>
+      </c>
+      <c r="M39" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B40" s="10" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="C40" s="11"/>
       <c r="D40" s="11">
-        <v>0</v>
+        <v>-17160</v>
       </c>
       <c r="E40" s="11">
+        <v>0</v>
+      </c>
+      <c r="F40" s="11">
         <v>-17160</v>
       </c>
-      <c r="F40" s="11">
-        <v>0</v>
-      </c>
       <c r="G40" s="11">
+        <v>0</v>
+      </c>
+      <c r="H40" s="11">
         <v>-17160</v>
       </c>
-      <c r="H40" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I40" s="11">
+        <v>0</v>
+      </c>
+      <c r="J40" s="11">
+        <v>-17160</v>
+      </c>
+      <c r="K40" s="11">
+        <v>0</v>
+      </c>
+      <c r="L40" s="11">
+        <v>-17160</v>
+      </c>
+      <c r="M40" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B41" s="14" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="C41" s="15"/>
       <c r="D41" s="15">
-        <v>0</v>
+        <v>-20793</v>
       </c>
       <c r="E41" s="15">
+        <v>321</v>
+      </c>
+      <c r="F41" s="15">
+        <v>-21748</v>
+      </c>
+      <c r="G41" s="15">
+        <v>0</v>
+      </c>
+      <c r="H41" s="15">
+        <v>-23046</v>
+      </c>
+      <c r="I41" s="15">
+        <v>0</v>
+      </c>
+      <c r="J41" s="15">
         <v>-24323</v>
       </c>
-      <c r="F41" s="15">
-        <v>0</v>
-      </c>
-      <c r="G41" s="15">
+      <c r="K41" s="15">
+        <v>0</v>
+      </c>
+      <c r="L41" s="15">
         <v>-25620</v>
       </c>
-      <c r="H41" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M41" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B42" s="10" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="C42" s="11"/>
       <c r="D42" s="11">
@@ -1468,10 +2005,25 @@
       <c r="H42" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I42" s="11">
+        <v>0</v>
+      </c>
+      <c r="J42" s="11">
+        <v>0</v>
+      </c>
+      <c r="K42" s="11">
+        <v>0</v>
+      </c>
+      <c r="L42" s="11">
+        <v>0</v>
+      </c>
+      <c r="M42" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B43" s="14" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="C43" s="15"/>
       <c r="D43" s="15">
@@ -1489,10 +2041,25 @@
       <c r="H43" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I43" s="15">
+        <v>0</v>
+      </c>
+      <c r="J43" s="15">
+        <v>0</v>
+      </c>
+      <c r="K43" s="15">
+        <v>0</v>
+      </c>
+      <c r="L43" s="15">
+        <v>0</v>
+      </c>
+      <c r="M43" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B44" s="10" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C44" s="11"/>
       <c r="D44" s="11">
@@ -1510,10 +2077,25 @@
       <c r="H44" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I44" s="11">
+        <v>0</v>
+      </c>
+      <c r="J44" s="11">
+        <v>0</v>
+      </c>
+      <c r="K44" s="11">
+        <v>0</v>
+      </c>
+      <c r="L44" s="11">
+        <v>0</v>
+      </c>
+      <c r="M44" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B45" s="14" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="C45" s="15"/>
       <c r="D45" s="15">
@@ -1531,10 +2113,25 @@
       <c r="H45" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I45" s="15">
+        <v>0</v>
+      </c>
+      <c r="J45" s="15">
+        <v>0</v>
+      </c>
+      <c r="K45" s="15">
+        <v>0</v>
+      </c>
+      <c r="L45" s="15">
+        <v>0</v>
+      </c>
+      <c r="M45" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B46" s="10" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="C46" s="11"/>
       <c r="D46" s="11">
@@ -1552,10 +2149,25 @@
       <c r="H46" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I46" s="11">
+        <v>0</v>
+      </c>
+      <c r="J46" s="11">
+        <v>0</v>
+      </c>
+      <c r="K46" s="11">
+        <v>0</v>
+      </c>
+      <c r="L46" s="11">
+        <v>0</v>
+      </c>
+      <c r="M46" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B47" s="14" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C47" s="15"/>
       <c r="D47" s="15">
@@ -1573,10 +2185,25 @@
       <c r="H47" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I47" s="15">
+        <v>0</v>
+      </c>
+      <c r="J47" s="15">
+        <v>0</v>
+      </c>
+      <c r="K47" s="15">
+        <v>0</v>
+      </c>
+      <c r="L47" s="15">
+        <v>0</v>
+      </c>
+      <c r="M47" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="C48" s="11"/>
       <c r="D48" s="11">
@@ -1594,10 +2221,25 @@
       <c r="H48" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I48" s="11">
+        <v>0</v>
+      </c>
+      <c r="J48" s="11">
+        <v>0</v>
+      </c>
+      <c r="K48" s="11">
+        <v>0</v>
+      </c>
+      <c r="L48" s="11">
+        <v>0</v>
+      </c>
+      <c r="M48" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B49" s="14" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="C49" s="15"/>
       <c r="D49" s="15">
@@ -1615,136 +2257,241 @@
       <c r="H49" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I49" s="15">
+        <v>0</v>
+      </c>
+      <c r="J49" s="15">
+        <v>0</v>
+      </c>
+      <c r="K49" s="15">
+        <v>0</v>
+      </c>
+      <c r="L49" s="15">
+        <v>0</v>
+      </c>
+      <c r="M49" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B50" s="10" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="C50" s="11"/>
       <c r="D50" s="11">
+        <v>-1351476</v>
+      </c>
+      <c r="E50" s="11">
+        <v>-94</v>
+      </c>
+      <c r="F50" s="11">
+        <v>-27006</v>
+      </c>
+      <c r="G50" s="11">
+        <v>0</v>
+      </c>
+      <c r="H50" s="11">
+        <v>-3131441</v>
+      </c>
+      <c r="I50" s="11">
         <v>-24148</v>
       </c>
-      <c r="E50" s="11">
+      <c r="J50" s="11">
         <v>-341</v>
       </c>
-      <c r="F50" s="11">
-        <v>0</v>
-      </c>
-      <c r="G50" s="11">
+      <c r="K50" s="11">
+        <v>0</v>
+      </c>
+      <c r="L50" s="11">
         <v>-1999558</v>
       </c>
-      <c r="H50" s="11">
+      <c r="M50" s="11">
         <v>-2856701</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B51" s="16" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="C51" s="17"/>
       <c r="D51" s="17">
+        <v>-1389429</v>
+      </c>
+      <c r="E51" s="17">
+        <v>227</v>
+      </c>
+      <c r="F51" s="17">
+        <v>-132085</v>
+      </c>
+      <c r="G51" s="17">
+        <v>0</v>
+      </c>
+      <c r="H51" s="17">
+        <v>-3142112</v>
+      </c>
+      <c r="I51" s="17">
         <v>-53683</v>
       </c>
-      <c r="E51" s="17">
+      <c r="J51" s="17">
         <v>-40377</v>
       </c>
-      <c r="F51" s="17">
-        <v>0</v>
-      </c>
-      <c r="G51" s="17">
+      <c r="K51" s="17">
+        <v>0</v>
+      </c>
+      <c r="L51" s="17">
         <v>-1976338</v>
       </c>
-      <c r="H51" s="17">
+      <c r="M51" s="17">
         <v>-2856701</v>
       </c>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B52" s="18" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="C52" s="19"/>
       <c r="D52" s="19">
+        <v>-793643</v>
+      </c>
+      <c r="E52" s="19">
+        <v>-115091</v>
+      </c>
+      <c r="F52" s="19">
+        <v>359331</v>
+      </c>
+      <c r="G52" s="19">
+        <v>-602221</v>
+      </c>
+      <c r="H52" s="19">
+        <v>1198612</v>
+      </c>
+      <c r="I52" s="19">
         <v>-538420</v>
       </c>
-      <c r="E52" s="19">
+      <c r="J52" s="19">
         <v>355524</v>
       </c>
-      <c r="F52" s="19">
+      <c r="K52" s="19">
         <v>2185181</v>
       </c>
-      <c r="G52" s="19">
+      <c r="L52" s="19">
         <v>-117338</v>
       </c>
-      <c r="H52" s="19">
+      <c r="M52" s="19">
         <v>-1665919</v>
       </c>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B53" s="14" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="C53" s="15"/>
       <c r="D53" s="15">
+        <v>1542837</v>
+      </c>
+      <c r="E53" s="15">
+        <v>628737</v>
+      </c>
+      <c r="F53" s="15">
+        <v>539172</v>
+      </c>
+      <c r="G53" s="15">
+        <v>819625</v>
+      </c>
+      <c r="H53" s="15">
+        <v>210560</v>
+      </c>
+      <c r="I53" s="15">
         <v>1421181</v>
       </c>
-      <c r="E53" s="15">
+      <c r="J53" s="15">
         <v>882761</v>
       </c>
-      <c r="F53" s="15">
+      <c r="K53" s="15">
         <v>1224333</v>
       </c>
-      <c r="G53" s="15">
+      <c r="L53" s="15">
         <v>3409514</v>
       </c>
-      <c r="H53" s="15">
+      <c r="M53" s="15">
         <v>3292993</v>
       </c>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B54" s="10" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C54" s="11"/>
       <c r="D54" s="11">
-        <v>0</v>
+        <v>29543</v>
       </c>
       <c r="E54" s="11">
+        <v>25526</v>
+      </c>
+      <c r="F54" s="11">
+        <v>-78878</v>
+      </c>
+      <c r="G54" s="11">
+        <v>-6844</v>
+      </c>
+      <c r="H54" s="11">
+        <v>12009</v>
+      </c>
+      <c r="I54" s="11">
+        <v>0</v>
+      </c>
+      <c r="J54" s="11">
         <v>-13952</v>
       </c>
-      <c r="F54" s="11">
-        <v>0</v>
-      </c>
-      <c r="G54" s="11">
+      <c r="K54" s="11">
+        <v>0</v>
+      </c>
+      <c r="L54" s="11">
         <v>817</v>
       </c>
-      <c r="H54" s="11">
+      <c r="M54" s="11">
         <v>81686</v>
       </c>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B55" s="16" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="C55" s="17"/>
       <c r="D55" s="17">
+        <v>628737</v>
+      </c>
+      <c r="E55" s="17">
+        <v>539172</v>
+      </c>
+      <c r="F55" s="17">
+        <v>819625</v>
+      </c>
+      <c r="G55" s="17">
+        <v>210560</v>
+      </c>
+      <c r="H55" s="17">
+        <v>1421181</v>
+      </c>
+      <c r="I55" s="17">
         <v>882761</v>
       </c>
-      <c r="E55" s="17">
+      <c r="J55" s="17">
         <v>1224333</v>
       </c>
-      <c r="F55" s="17">
+      <c r="K55" s="17">
         <v>3409514</v>
       </c>
-      <c r="G55" s="17">
+      <c r="L55" s="17">
         <v>3292993</v>
       </c>
-      <c r="H55" s="17">
+      <c r="M55" s="17">
         <v>1708760</v>
       </c>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B56" s="10" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="C56" s="11"/>
       <c r="D56" s="11">
@@ -1762,8 +2509,23 @@
       <c r="H56" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I56" s="11">
+        <v>0</v>
+      </c>
+      <c r="J56" s="11">
+        <v>0</v>
+      </c>
+      <c r="K56" s="11">
+        <v>0</v>
+      </c>
+      <c r="L56" s="11">
+        <v>0</v>
+      </c>
+      <c r="M56" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -1771,6 +2533,11 @@
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+      <c r="M57" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/database/industries/siman/save/cashflow/quarterly.xlsx
+++ b/database/industries/siman/save/cashflow/quarterly.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\siman\save\cashflow\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\siman\save\cashflow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D566219E-78B8-4CDE-A76B-A979B96284CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -244,7 +243,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -442,7 +441,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -454,7 +453,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -501,23 +500,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -553,23 +535,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -721,7 +686,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/database/industries/siman/save/cashflow/quarterly.xlsx
+++ b/database/industries/siman/save/cashflow/quarterly.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\siman\save\cashflow\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\siman\save\cashflow\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{564F0B0C-0A5C-4884-B8A4-FACE74D48767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="9420"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="73">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -36,9 +37,6 @@
     <t>دوره مالی</t>
   </si>
   <si>
-    <t>فصل دوم منتهی به 1399/06</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1399/09</t>
   </si>
   <si>
@@ -66,12 +64,12 @@
     <t>فصل سوم منتهی به 1401/09</t>
   </si>
   <si>
+    <t>فصل چهارم منتهی به 1401/12</t>
+  </si>
+  <si>
     <t>تاریخ انتشار</t>
   </si>
   <si>
-    <t>1400-08-29 (4)</t>
-  </si>
-  <si>
     <t>1400-11-02 (2)</t>
   </si>
   <si>
@@ -87,7 +85,7 @@
     <t>1401-11-19 (3)</t>
   </si>
   <si>
-    <t>1401-11-19 (9)</t>
+    <t>1402-02-27 (12)</t>
   </si>
   <si>
     <t>1401-05-01</t>
@@ -97,6 +95,9 @@
   </si>
   <si>
     <t>1401-11-19 (2)</t>
+  </si>
+  <si>
+    <t>1402-02-27 (3)</t>
   </si>
   <si>
     <t>فعالیتهای عملیاتی</t>
@@ -243,7 +244,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -441,7 +442,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -453,7 +454,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -500,6 +501,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -535,6 +553,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -686,23 +721,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:M57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="74" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="5" width="29" customWidth="1"/>
-    <col min="6" max="6" width="31" customWidth="1"/>
-    <col min="7" max="9" width="29" customWidth="1"/>
-    <col min="10" max="10" width="31" customWidth="1"/>
-    <col min="11" max="13" width="29" customWidth="1"/>
+    <col min="4" max="4" width="29" customWidth="1"/>
+    <col min="5" max="5" width="31" customWidth="1"/>
+    <col min="6" max="8" width="29" customWidth="1"/>
+    <col min="9" max="9" width="31" customWidth="1"/>
+    <col min="10" max="12" width="29" customWidth="1"/>
+    <col min="13" max="13" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -716,7 +752,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -732,7 +768,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -748,7 +784,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -762,7 +798,7 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="2:13" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -778,7 +814,7 @@
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
     </row>
-    <row r="6" spans="2:13" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -794,7 +830,7 @@
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -808,7 +844,7 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -844,7 +880,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
         <v>15</v>
       </c>
@@ -880,7 +916,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -894,7 +930,7 @@
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
         <v>26</v>
       </c>
@@ -910,115 +946,115 @@
       <c r="L11" s="13"/>
       <c r="M11" s="13"/>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" s="14" t="s">
         <v>27</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15">
-        <v>667469</v>
+        <v>1213811</v>
       </c>
       <c r="E12" s="15">
-        <v>1213811</v>
+        <v>1099830</v>
       </c>
       <c r="F12" s="15">
-        <v>1099830</v>
+        <v>1513024</v>
       </c>
       <c r="G12" s="15">
-        <v>1513024</v>
+        <v>1717640</v>
       </c>
       <c r="H12" s="15">
-        <v>1717640</v>
+        <v>-333461</v>
       </c>
       <c r="I12" s="15">
-        <v>-333461</v>
+        <v>2436389</v>
       </c>
       <c r="J12" s="15">
-        <v>2436389</v>
+        <v>2683124</v>
       </c>
       <c r="K12" s="15">
-        <v>2683124</v>
+        <v>1739073</v>
       </c>
       <c r="L12" s="15">
-        <v>1739073</v>
+        <v>1151190</v>
       </c>
       <c r="M12" s="15">
-        <v>1151190</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+        <v>3459418</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>28</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11">
-        <v>-76000</v>
+        <v>-192397</v>
       </c>
       <c r="E13" s="11">
-        <v>-192397</v>
+        <v>61075</v>
       </c>
       <c r="F13" s="11">
-        <v>61075</v>
+        <v>0</v>
       </c>
       <c r="G13" s="11">
-        <v>0</v>
+        <v>-178414</v>
       </c>
       <c r="H13" s="11">
-        <v>-178414</v>
+        <v>-347236</v>
       </c>
       <c r="I13" s="11">
-        <v>-347236</v>
+        <v>136680</v>
       </c>
       <c r="J13" s="11">
-        <v>136680</v>
+        <v>0</v>
       </c>
       <c r="K13" s="11">
-        <v>0</v>
+        <v>-279401</v>
       </c>
       <c r="L13" s="11">
-        <v>-279401</v>
+        <v>-158450</v>
       </c>
       <c r="M13" s="11">
-        <v>-158450</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-248155</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" s="16" t="s">
         <v>29</v>
       </c>
       <c r="C14" s="17"/>
       <c r="D14" s="17">
-        <v>591469</v>
+        <v>1021414</v>
       </c>
       <c r="E14" s="17">
-        <v>1021414</v>
+        <v>1160905</v>
       </c>
       <c r="F14" s="17">
-        <v>1160905</v>
+        <v>1513024</v>
       </c>
       <c r="G14" s="17">
-        <v>1513024</v>
+        <v>1539226</v>
       </c>
       <c r="H14" s="17">
-        <v>1539226</v>
+        <v>-680697</v>
       </c>
       <c r="I14" s="17">
-        <v>-680697</v>
+        <v>2573069</v>
       </c>
       <c r="J14" s="17">
-        <v>2573069</v>
+        <v>2683124</v>
       </c>
       <c r="K14" s="17">
-        <v>2683124</v>
+        <v>1459672</v>
       </c>
       <c r="L14" s="17">
-        <v>1459672</v>
+        <v>992740</v>
       </c>
       <c r="M14" s="17">
-        <v>992740</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+        <v>3211263</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>30</v>
       </c>
@@ -1034,19 +1070,19 @@
       <c r="L15" s="13"/>
       <c r="M15" s="13"/>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16" s="14" t="s">
         <v>31</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15">
-        <v>0</v>
+        <v>3333</v>
       </c>
       <c r="E16" s="15">
-        <v>3333</v>
+        <v>1700</v>
       </c>
       <c r="F16" s="15">
-        <v>1700</v>
+        <v>0</v>
       </c>
       <c r="G16" s="15">
         <v>0</v>
@@ -1070,43 +1106,43 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>32</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11">
-        <v>-16067</v>
+        <v>-19581</v>
       </c>
       <c r="E17" s="11">
-        <v>-19581</v>
+        <v>-28411</v>
       </c>
       <c r="F17" s="11">
-        <v>-28411</v>
+        <v>-10576</v>
       </c>
       <c r="G17" s="11">
-        <v>-10576</v>
+        <v>-16051</v>
       </c>
       <c r="H17" s="11">
-        <v>-16051</v>
+        <v>0</v>
       </c>
       <c r="I17" s="11">
-        <v>0</v>
+        <v>-25455</v>
       </c>
       <c r="J17" s="11">
-        <v>-25455</v>
+        <v>0</v>
       </c>
       <c r="K17" s="11">
-        <v>0</v>
+        <v>-20555</v>
       </c>
       <c r="L17" s="11">
-        <v>-20555</v>
+        <v>-522</v>
       </c>
       <c r="M17" s="11">
-        <v>-522</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-222051</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
         <v>33</v>
       </c>
@@ -1142,7 +1178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>34</v>
       </c>
@@ -1178,7 +1214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="14" t="s">
         <v>35</v>
       </c>
@@ -1211,10 +1247,10 @@
         <v>0</v>
       </c>
       <c r="M20" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-3426</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
         <v>36</v>
       </c>
@@ -1250,7 +1286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" s="14" t="s">
         <v>37</v>
       </c>
@@ -1286,7 +1322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
         <v>38</v>
       </c>
@@ -1301,16 +1337,16 @@
         <v>0</v>
       </c>
       <c r="G23" s="11">
-        <v>0</v>
+        <v>615600</v>
       </c>
       <c r="H23" s="11">
-        <v>615600</v>
+        <v>29535</v>
       </c>
       <c r="I23" s="11">
-        <v>29535</v>
+        <v>-645135</v>
       </c>
       <c r="J23" s="11">
-        <v>-645135</v>
+        <v>0</v>
       </c>
       <c r="K23" s="11">
         <v>0</v>
@@ -1322,7 +1358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" s="14" t="s">
         <v>39</v>
       </c>
@@ -1340,13 +1376,13 @@
         <v>0</v>
       </c>
       <c r="H24" s="15">
-        <v>0</v>
+        <v>-76020</v>
       </c>
       <c r="I24" s="15">
-        <v>-76020</v>
+        <v>76020</v>
       </c>
       <c r="J24" s="15">
-        <v>76020</v>
+        <v>0</v>
       </c>
       <c r="K24" s="15">
         <v>0</v>
@@ -1358,7 +1394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" s="10" t="s">
         <v>40</v>
       </c>
@@ -1367,10 +1403,10 @@
         <v>0</v>
       </c>
       <c r="E25" s="11">
-        <v>0</v>
+        <v>382747</v>
       </c>
       <c r="F25" s="11">
-        <v>382747</v>
+        <v>0</v>
       </c>
       <c r="G25" s="11">
         <v>0</v>
@@ -1379,10 +1415,10 @@
         <v>0</v>
       </c>
       <c r="I25" s="11">
-        <v>0</v>
+        <v>11851</v>
       </c>
       <c r="J25" s="11">
-        <v>11851</v>
+        <v>0</v>
       </c>
       <c r="K25" s="11">
         <v>0</v>
@@ -1394,43 +1430,43 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B26" s="14" t="s">
         <v>41</v>
       </c>
       <c r="C26" s="15"/>
       <c r="D26" s="15">
-        <v>0</v>
+        <v>-1150198</v>
       </c>
       <c r="E26" s="15">
-        <v>-1150198</v>
+        <v>-1080051</v>
       </c>
       <c r="F26" s="15">
-        <v>-1080051</v>
+        <v>-2130113</v>
       </c>
       <c r="G26" s="15">
-        <v>-2130113</v>
+        <v>2054093</v>
       </c>
       <c r="H26" s="15">
-        <v>2054093</v>
+        <v>76020</v>
       </c>
       <c r="I26" s="15">
-        <v>76020</v>
+        <v>-1687998</v>
       </c>
       <c r="J26" s="15">
-        <v>-1687998</v>
+        <v>-746398</v>
       </c>
       <c r="K26" s="15">
-        <v>-746398</v>
+        <v>199992</v>
       </c>
       <c r="L26" s="15">
-        <v>199992</v>
+        <v>-44970</v>
       </c>
       <c r="M26" s="15">
-        <v>-44970</v>
-      </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-3965550</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B27" s="10" t="s">
         <v>42</v>
       </c>
@@ -1466,7 +1502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B28" s="14" t="s">
         <v>43</v>
       </c>
@@ -1502,7 +1538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B29" s="10" t="s">
         <v>44</v>
       </c>
@@ -1538,151 +1574,151 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B30" s="14" t="s">
         <v>45</v>
       </c>
       <c r="C30" s="15"/>
       <c r="D30" s="15">
-        <v>578</v>
+        <v>-578</v>
       </c>
       <c r="E30" s="15">
-        <v>-578</v>
+        <v>0</v>
       </c>
       <c r="F30" s="15">
         <v>0</v>
       </c>
       <c r="G30" s="15">
-        <v>0</v>
+        <v>24844</v>
       </c>
       <c r="H30" s="15">
-        <v>24844</v>
+        <v>0</v>
       </c>
       <c r="I30" s="15">
         <v>0</v>
       </c>
       <c r="J30" s="15">
-        <v>0</v>
+        <v>89971</v>
       </c>
       <c r="K30" s="15">
-        <v>89971</v>
+        <v>-48603</v>
       </c>
       <c r="L30" s="15">
-        <v>-48603</v>
+        <v>48360</v>
       </c>
       <c r="M30" s="15">
-        <v>48360</v>
-      </c>
-    </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+        <v>15757</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B31" s="10" t="s">
         <v>46</v>
       </c>
       <c r="C31" s="11"/>
       <c r="D31" s="11">
-        <v>19806</v>
+        <v>30292</v>
       </c>
       <c r="E31" s="11">
-        <v>30292</v>
+        <v>54526</v>
       </c>
       <c r="F31" s="11">
-        <v>54526</v>
+        <v>25444</v>
       </c>
       <c r="G31" s="11">
-        <v>25444</v>
+        <v>123012</v>
       </c>
       <c r="H31" s="11">
-        <v>123012</v>
+        <v>166425</v>
       </c>
       <c r="I31" s="11">
-        <v>166425</v>
+        <v>93549</v>
       </c>
       <c r="J31" s="11">
-        <v>93549</v>
+        <v>158484</v>
       </c>
       <c r="K31" s="11">
-        <v>158484</v>
+        <v>268494</v>
       </c>
       <c r="L31" s="11">
-        <v>268494</v>
+        <v>195174</v>
       </c>
       <c r="M31" s="11">
-        <v>195174</v>
-      </c>
-    </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+        <v>294382</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B32" s="16" t="s">
         <v>47</v>
       </c>
       <c r="C32" s="17"/>
       <c r="D32" s="17">
-        <v>4317</v>
+        <v>-1136732</v>
       </c>
       <c r="E32" s="17">
-        <v>-1136732</v>
+        <v>-669489</v>
       </c>
       <c r="F32" s="17">
-        <v>-669489</v>
+        <v>-2115245</v>
       </c>
       <c r="G32" s="17">
-        <v>-2115245</v>
+        <v>2801498</v>
       </c>
       <c r="H32" s="17">
-        <v>2801498</v>
+        <v>195960</v>
       </c>
       <c r="I32" s="17">
-        <v>195960</v>
+        <v>-2177168</v>
       </c>
       <c r="J32" s="17">
-        <v>-2177168</v>
+        <v>-497943</v>
       </c>
       <c r="K32" s="17">
-        <v>-497943</v>
+        <v>399328</v>
       </c>
       <c r="L32" s="17">
-        <v>399328</v>
+        <v>198042</v>
       </c>
       <c r="M32" s="17">
-        <v>198042</v>
-      </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-3880888</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B33" s="18" t="s">
         <v>48</v>
       </c>
       <c r="C33" s="19"/>
       <c r="D33" s="19">
-        <v>595786</v>
+        <v>-115318</v>
       </c>
       <c r="E33" s="19">
-        <v>-115318</v>
+        <v>491416</v>
       </c>
       <c r="F33" s="19">
-        <v>491416</v>
+        <v>-602221</v>
       </c>
       <c r="G33" s="19">
-        <v>-602221</v>
+        <v>4340724</v>
       </c>
       <c r="H33" s="19">
-        <v>4340724</v>
+        <v>-484737</v>
       </c>
       <c r="I33" s="19">
-        <v>-484737</v>
+        <v>395901</v>
       </c>
       <c r="J33" s="19">
-        <v>395901</v>
+        <v>2185181</v>
       </c>
       <c r="K33" s="19">
-        <v>2185181</v>
+        <v>1859000</v>
       </c>
       <c r="L33" s="19">
-        <v>1859000</v>
+        <v>1190782</v>
       </c>
       <c r="M33" s="19">
-        <v>1190782</v>
-      </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-669625</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B34" s="12" t="s">
         <v>49</v>
       </c>
@@ -1698,7 +1734,7 @@
       <c r="L34" s="13"/>
       <c r="M34" s="13"/>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B35" s="14" t="s">
         <v>50</v>
       </c>
@@ -1734,7 +1770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
         <v>51</v>
       </c>
@@ -1751,26 +1787,26 @@
       <c r="G36" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="H36" s="11" t="s">
+      <c r="H36" s="11">
+        <v>0</v>
+      </c>
+      <c r="I36" s="11">
+        <v>0</v>
+      </c>
+      <c r="J36" s="11" t="s">
         <v>52</v>
-      </c>
-      <c r="I36" s="11">
-        <v>0</v>
-      </c>
-      <c r="J36" s="11">
-        <v>0</v>
       </c>
       <c r="K36" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="L36" s="11" t="s">
-        <v>52</v>
+      <c r="L36" s="11">
+        <v>0</v>
       </c>
       <c r="M36" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B37" s="14" t="s">
         <v>53</v>
       </c>
@@ -1779,34 +1815,34 @@
         <v>0</v>
       </c>
       <c r="E37" s="15">
-        <v>0</v>
+        <v>224434</v>
       </c>
       <c r="F37" s="15">
-        <v>224434</v>
+        <v>0</v>
       </c>
       <c r="G37" s="15">
-        <v>0</v>
+        <v>92772</v>
       </c>
       <c r="H37" s="15">
-        <v>92772</v>
+        <v>-92772</v>
       </c>
       <c r="I37" s="15">
-        <v>-92772</v>
+        <v>149376</v>
       </c>
       <c r="J37" s="15">
-        <v>149376</v>
+        <v>0</v>
       </c>
       <c r="K37" s="15">
-        <v>0</v>
+        <v>80512</v>
       </c>
       <c r="L37" s="15">
-        <v>80512</v>
+        <v>0</v>
       </c>
       <c r="M37" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
+        <v>68448</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
         <v>54</v>
       </c>
@@ -1815,34 +1851,34 @@
         <v>0</v>
       </c>
       <c r="E38" s="11">
-        <v>0</v>
+        <v>-290605</v>
       </c>
       <c r="F38" s="11">
-        <v>-290605</v>
+        <v>0</v>
       </c>
       <c r="G38" s="11">
-        <v>0</v>
+        <v>-63237</v>
       </c>
       <c r="H38" s="11">
-        <v>-63237</v>
+        <v>63237</v>
       </c>
       <c r="I38" s="11">
-        <v>63237</v>
+        <v>-147929</v>
       </c>
       <c r="J38" s="11">
-        <v>-147929</v>
+        <v>0</v>
       </c>
       <c r="K38" s="11">
-        <v>0</v>
+        <v>-14512</v>
       </c>
       <c r="L38" s="11">
-        <v>-14512</v>
+        <v>0</v>
       </c>
       <c r="M38" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-75546</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B39" s="14" t="s">
         <v>55</v>
       </c>
@@ -1878,79 +1914,79 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
         <v>56</v>
       </c>
       <c r="C40" s="11"/>
       <c r="D40" s="11">
+        <v>0</v>
+      </c>
+      <c r="E40" s="11">
         <v>-17160</v>
       </c>
-      <c r="E40" s="11">
-        <v>0</v>
-      </c>
       <c r="F40" s="11">
+        <v>0</v>
+      </c>
+      <c r="G40" s="11">
         <v>-17160</v>
       </c>
-      <c r="G40" s="11">
-        <v>0</v>
-      </c>
       <c r="H40" s="11">
+        <v>0</v>
+      </c>
+      <c r="I40" s="11">
         <v>-17160</v>
       </c>
-      <c r="I40" s="11">
-        <v>0</v>
-      </c>
       <c r="J40" s="11">
+        <v>0</v>
+      </c>
+      <c r="K40" s="11">
         <v>-17160</v>
       </c>
-      <c r="K40" s="11">
-        <v>0</v>
-      </c>
       <c r="L40" s="11">
+        <v>0</v>
+      </c>
+      <c r="M40" s="11">
         <v>-17160</v>
       </c>
-      <c r="M40" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B41" s="14" t="s">
         <v>57</v>
       </c>
       <c r="C41" s="15"/>
       <c r="D41" s="15">
-        <v>-20793</v>
+        <v>321</v>
       </c>
       <c r="E41" s="15">
-        <v>321</v>
+        <v>-21748</v>
       </c>
       <c r="F41" s="15">
-        <v>-21748</v>
+        <v>0</v>
       </c>
       <c r="G41" s="15">
-        <v>0</v>
+        <v>-23046</v>
       </c>
       <c r="H41" s="15">
-        <v>-23046</v>
+        <v>0</v>
       </c>
       <c r="I41" s="15">
-        <v>0</v>
+        <v>-24323</v>
       </c>
       <c r="J41" s="15">
-        <v>-24323</v>
+        <v>0</v>
       </c>
       <c r="K41" s="15">
-        <v>0</v>
+        <v>-25620</v>
       </c>
       <c r="L41" s="15">
-        <v>-25620</v>
+        <v>0</v>
       </c>
       <c r="M41" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-26897</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B42" s="10" t="s">
         <v>58</v>
       </c>
@@ -1986,7 +2022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B43" s="14" t="s">
         <v>59</v>
       </c>
@@ -2022,7 +2058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B44" s="10" t="s">
         <v>60</v>
       </c>
@@ -2058,7 +2094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B45" s="14" t="s">
         <v>61</v>
       </c>
@@ -2094,7 +2130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B46" s="10" t="s">
         <v>62</v>
       </c>
@@ -2130,7 +2166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B47" s="14" t="s">
         <v>63</v>
       </c>
@@ -2166,7 +2202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
         <v>64</v>
       </c>
@@ -2202,7 +2238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B49" s="14" t="s">
         <v>65</v>
       </c>
@@ -2238,223 +2274,223 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
         <v>66</v>
       </c>
       <c r="C50" s="11"/>
       <c r="D50" s="11">
-        <v>-1351476</v>
+        <v>-94</v>
       </c>
       <c r="E50" s="11">
-        <v>-94</v>
+        <v>-27006</v>
       </c>
       <c r="F50" s="11">
-        <v>-27006</v>
+        <v>0</v>
       </c>
       <c r="G50" s="11">
-        <v>0</v>
+        <v>-3131441</v>
       </c>
       <c r="H50" s="11">
-        <v>-3131441</v>
+        <v>-24148</v>
       </c>
       <c r="I50" s="11">
-        <v>-24148</v>
+        <v>-341</v>
       </c>
       <c r="J50" s="11">
-        <v>-341</v>
+        <v>0</v>
       </c>
       <c r="K50" s="11">
-        <v>0</v>
+        <v>-1999558</v>
       </c>
       <c r="L50" s="11">
-        <v>-1999558</v>
+        <v>-2856701</v>
       </c>
       <c r="M50" s="11">
-        <v>-2856701</v>
-      </c>
-    </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-32355</v>
+      </c>
+    </row>
+    <row r="51" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B51" s="16" t="s">
         <v>67</v>
       </c>
       <c r="C51" s="17"/>
       <c r="D51" s="17">
-        <v>-1389429</v>
+        <v>227</v>
       </c>
       <c r="E51" s="17">
-        <v>227</v>
+        <v>-132085</v>
       </c>
       <c r="F51" s="17">
-        <v>-132085</v>
+        <v>0</v>
       </c>
       <c r="G51" s="17">
-        <v>0</v>
+        <v>-3142112</v>
       </c>
       <c r="H51" s="17">
-        <v>-3142112</v>
+        <v>-53683</v>
       </c>
       <c r="I51" s="17">
-        <v>-53683</v>
+        <v>-40377</v>
       </c>
       <c r="J51" s="17">
-        <v>-40377</v>
+        <v>0</v>
       </c>
       <c r="K51" s="17">
-        <v>0</v>
+        <v>-1976338</v>
       </c>
       <c r="L51" s="17">
-        <v>-1976338</v>
+        <v>-2856701</v>
       </c>
       <c r="M51" s="17">
-        <v>-2856701</v>
-      </c>
-    </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-83510</v>
+      </c>
+    </row>
+    <row r="52" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B52" s="18" t="s">
         <v>68</v>
       </c>
       <c r="C52" s="19"/>
       <c r="D52" s="19">
-        <v>-793643</v>
+        <v>-115091</v>
       </c>
       <c r="E52" s="19">
-        <v>-115091</v>
+        <v>359331</v>
       </c>
       <c r="F52" s="19">
-        <v>359331</v>
+        <v>-602221</v>
       </c>
       <c r="G52" s="19">
-        <v>-602221</v>
+        <v>1198612</v>
       </c>
       <c r="H52" s="19">
-        <v>1198612</v>
+        <v>-538420</v>
       </c>
       <c r="I52" s="19">
-        <v>-538420</v>
+        <v>355524</v>
       </c>
       <c r="J52" s="19">
-        <v>355524</v>
+        <v>2185181</v>
       </c>
       <c r="K52" s="19">
-        <v>2185181</v>
+        <v>-117338</v>
       </c>
       <c r="L52" s="19">
-        <v>-117338</v>
+        <v>-1665919</v>
       </c>
       <c r="M52" s="19">
-        <v>-1665919</v>
-      </c>
-    </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-753135</v>
+      </c>
+    </row>
+    <row r="53" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B53" s="14" t="s">
         <v>69</v>
       </c>
       <c r="C53" s="15"/>
       <c r="D53" s="15">
-        <v>1542837</v>
+        <v>628737</v>
       </c>
       <c r="E53" s="15">
-        <v>628737</v>
+        <v>539172</v>
       </c>
       <c r="F53" s="15">
-        <v>539172</v>
+        <v>819625</v>
       </c>
       <c r="G53" s="15">
-        <v>819625</v>
+        <v>210560</v>
       </c>
       <c r="H53" s="15">
-        <v>210560</v>
+        <v>1421181</v>
       </c>
       <c r="I53" s="15">
-        <v>1421181</v>
+        <v>882761</v>
       </c>
       <c r="J53" s="15">
-        <v>882761</v>
+        <v>1224333</v>
       </c>
       <c r="K53" s="15">
-        <v>1224333</v>
+        <v>3409514</v>
       </c>
       <c r="L53" s="15">
-        <v>3409514</v>
+        <v>3292993</v>
       </c>
       <c r="M53" s="15">
-        <v>3292993</v>
-      </c>
-    </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
+        <v>1708760</v>
+      </c>
+    </row>
+    <row r="54" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
         <v>70</v>
       </c>
       <c r="C54" s="11"/>
       <c r="D54" s="11">
-        <v>29543</v>
+        <v>25526</v>
       </c>
       <c r="E54" s="11">
-        <v>25526</v>
+        <v>-78878</v>
       </c>
       <c r="F54" s="11">
-        <v>-78878</v>
+        <v>-6844</v>
       </c>
       <c r="G54" s="11">
-        <v>-6844</v>
+        <v>12009</v>
       </c>
       <c r="H54" s="11">
-        <v>12009</v>
+        <v>0</v>
       </c>
       <c r="I54" s="11">
-        <v>0</v>
+        <v>-13952</v>
       </c>
       <c r="J54" s="11">
-        <v>-13952</v>
+        <v>0</v>
       </c>
       <c r="K54" s="11">
-        <v>0</v>
+        <v>817</v>
       </c>
       <c r="L54" s="11">
-        <v>817</v>
+        <v>81686</v>
       </c>
       <c r="M54" s="11">
-        <v>81686</v>
-      </c>
-    </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
+        <v>296209</v>
+      </c>
+    </row>
+    <row r="55" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B55" s="16" t="s">
         <v>71</v>
       </c>
       <c r="C55" s="17"/>
       <c r="D55" s="17">
-        <v>628737</v>
+        <v>539172</v>
       </c>
       <c r="E55" s="17">
-        <v>539172</v>
+        <v>819625</v>
       </c>
       <c r="F55" s="17">
-        <v>819625</v>
+        <v>210560</v>
       </c>
       <c r="G55" s="17">
-        <v>210560</v>
+        <v>1421181</v>
       </c>
       <c r="H55" s="17">
-        <v>1421181</v>
+        <v>882761</v>
       </c>
       <c r="I55" s="17">
-        <v>882761</v>
+        <v>1224333</v>
       </c>
       <c r="J55" s="17">
-        <v>1224333</v>
+        <v>3409514</v>
       </c>
       <c r="K55" s="17">
-        <v>3409514</v>
+        <v>3292993</v>
       </c>
       <c r="L55" s="17">
-        <v>3292993</v>
+        <v>1708760</v>
       </c>
       <c r="M55" s="17">
-        <v>1708760</v>
-      </c>
-    </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
+        <v>1251834</v>
+      </c>
+    </row>
+    <row r="56" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B56" s="10" t="s">
         <v>72</v>
       </c>
@@ -2490,7 +2526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>

--- a/database/industries/siman/save/cashflow/quarterly.xlsx
+++ b/database/industries/siman/save/cashflow/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\siman\save\cashflow\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\VAHID\Desktop\Trade\database\industries\siman\save\cashflow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{564F0B0C-0A5C-4884-B8A4-FACE74D48767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF2B247F-BCB2-479A-9F3D-DFFA14568811}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3384" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="93">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,6 +37,30 @@
     <t>دوره مالی</t>
   </si>
   <si>
+    <t>فصل سوم منتهی به 1397/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1397/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1398/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1398/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1398/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1398/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1399/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1399/06</t>
+  </si>
+  <si>
     <t>فصل سوم منتهی به 1399/09</t>
   </si>
   <si>
@@ -67,9 +91,39 @@
     <t>فصل چهارم منتهی به 1401/12</t>
   </si>
   <si>
+    <t>فصل اول منتهی به 1402/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1402/06</t>
+  </si>
+  <si>
     <t>تاریخ انتشار</t>
   </si>
   <si>
+    <t>1398-12-11 (2)</t>
+  </si>
+  <si>
+    <t>1399-02-15 (10)</t>
+  </si>
+  <si>
+    <t>1399-04-27</t>
+  </si>
+  <si>
+    <t>1399-09-05 (4)</t>
+  </si>
+  <si>
+    <t>1399-10-30 (3)</t>
+  </si>
+  <si>
+    <t>1400-02-19 (11)</t>
+  </si>
+  <si>
+    <t>1400-05-20 (3)</t>
+  </si>
+  <si>
+    <t>1400-08-29 (4)</t>
+  </si>
+  <si>
     <t>1400-11-02 (2)</t>
   </si>
   <si>
@@ -88,16 +142,22 @@
     <t>1402-02-27 (12)</t>
   </si>
   <si>
-    <t>1401-05-01</t>
-  </si>
-  <si>
-    <t>1401-08-30 (2)</t>
+    <t>1402-04-31 (2)</t>
+  </si>
+  <si>
+    <t>1402-07-30 (3)</t>
   </si>
   <si>
     <t>1401-11-19 (2)</t>
   </si>
   <si>
-    <t>1402-02-27 (3)</t>
+    <t>1402-07-30 (5)</t>
+  </si>
+  <si>
+    <t>1402-04-31</t>
+  </si>
+  <si>
+    <t>1402-07-30</t>
   </si>
   <si>
     <t>فعالیتهای عملیاتی</t>
@@ -722,7 +782,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:M57"/>
+  <dimension ref="B1:W57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -736,9 +796,14 @@
     <col min="9" max="9" width="31" customWidth="1"/>
     <col min="10" max="12" width="29" customWidth="1"/>
     <col min="13" max="13" width="31" customWidth="1"/>
+    <col min="14" max="16" width="29" customWidth="1"/>
+    <col min="17" max="17" width="31" customWidth="1"/>
+    <col min="18" max="20" width="29" customWidth="1"/>
+    <col min="21" max="21" width="31" customWidth="1"/>
+    <col min="22" max="23" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -751,8 +816,18 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
-    </row>
-    <row r="2" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+    </row>
+    <row r="2" spans="2:23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -767,8 +842,18 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+    </row>
+    <row r="3" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -783,8 +868,18 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+    </row>
+    <row r="4" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -797,8 +892,18 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
-    </row>
-    <row r="5" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+    </row>
+    <row r="5" spans="2:23" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -813,8 +918,18 @@
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
-    </row>
-    <row r="6" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+    </row>
+    <row r="6" spans="2:23" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -829,8 +944,18 @@
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+    </row>
+    <row r="7" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -843,8 +968,18 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
-    </row>
-    <row r="8" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+    </row>
+    <row r="8" spans="2:23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -879,44 +1014,104 @@
       <c r="M8" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="P8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="R8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="S8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="T8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="U8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="V8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="W8" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+      <c r="N9" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="O9" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="P9" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q9" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="R9" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="S9" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="T9" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="U9" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="V9" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="W9" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -929,10 +1124,20 @@
       <c r="K10" s="11"/>
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11"/>
+    </row>
+    <row r="11" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -945,118 +1150,218 @@
       <c r="K11" s="13"/>
       <c r="L11" s="13"/>
       <c r="M11" s="13"/>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="13"/>
+      <c r="U11" s="13"/>
+      <c r="V11" s="13"/>
+      <c r="W11" s="13"/>
+    </row>
+    <row r="12" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B12" s="14" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15">
+        <v>209199</v>
+      </c>
+      <c r="E12" s="15">
+        <v>120088</v>
+      </c>
+      <c r="F12" s="15">
+        <v>213315</v>
+      </c>
+      <c r="G12" s="15">
+        <v>494963</v>
+      </c>
+      <c r="H12" s="15">
+        <v>255761</v>
+      </c>
+      <c r="I12" s="15">
+        <v>51386</v>
+      </c>
+      <c r="J12" s="15">
+        <v>795879</v>
+      </c>
+      <c r="K12" s="15">
+        <v>667469</v>
+      </c>
+      <c r="L12" s="15">
         <v>1213811</v>
       </c>
-      <c r="E12" s="15">
+      <c r="M12" s="15">
         <v>1099830</v>
       </c>
-      <c r="F12" s="15">
+      <c r="N12" s="15">
         <v>1513024</v>
       </c>
-      <c r="G12" s="15">
+      <c r="O12" s="15">
         <v>1717640</v>
       </c>
-      <c r="H12" s="15">
+      <c r="P12" s="15">
         <v>-333461</v>
       </c>
-      <c r="I12" s="15">
+      <c r="Q12" s="15">
         <v>2436389</v>
       </c>
-      <c r="J12" s="15">
+      <c r="R12" s="15">
         <v>2683124</v>
       </c>
-      <c r="K12" s="15">
+      <c r="S12" s="15">
         <v>1739073</v>
       </c>
-      <c r="L12" s="15">
+      <c r="T12" s="15">
         <v>1151190</v>
       </c>
-      <c r="M12" s="15">
+      <c r="U12" s="15">
         <v>3459418</v>
       </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V12" s="15">
+        <v>3702339</v>
+      </c>
+      <c r="W12" s="15">
+        <v>3633429</v>
+      </c>
+    </row>
+    <row r="13" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11">
+        <v>-56556</v>
+      </c>
+      <c r="E13" s="11">
+        <v>-33975</v>
+      </c>
+      <c r="F13" s="11">
+        <v>-12523</v>
+      </c>
+      <c r="G13" s="11">
+        <v>-48351</v>
+      </c>
+      <c r="H13" s="11">
+        <v>-74622</v>
+      </c>
+      <c r="I13" s="11">
+        <v>-63716</v>
+      </c>
+      <c r="J13" s="11">
+        <v>0</v>
+      </c>
+      <c r="K13" s="11">
+        <v>-76000</v>
+      </c>
+      <c r="L13" s="11">
         <v>-192397</v>
       </c>
-      <c r="E13" s="11">
+      <c r="M13" s="11">
         <v>61075</v>
       </c>
-      <c r="F13" s="11">
-        <v>0</v>
-      </c>
-      <c r="G13" s="11">
+      <c r="N13" s="11">
+        <v>0</v>
+      </c>
+      <c r="O13" s="11">
         <v>-178414</v>
       </c>
-      <c r="H13" s="11">
+      <c r="P13" s="11">
         <v>-347236</v>
       </c>
-      <c r="I13" s="11">
+      <c r="Q13" s="11">
         <v>136680</v>
       </c>
-      <c r="J13" s="11">
-        <v>0</v>
-      </c>
-      <c r="K13" s="11">
+      <c r="R13" s="11">
+        <v>0</v>
+      </c>
+      <c r="S13" s="11">
         <v>-279401</v>
       </c>
-      <c r="L13" s="11">
+      <c r="T13" s="11">
         <v>-158450</v>
       </c>
-      <c r="M13" s="11">
+      <c r="U13" s="11">
         <v>-248155</v>
       </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V13" s="11">
+        <v>-345701</v>
+      </c>
+      <c r="W13" s="11">
+        <v>-544673</v>
+      </c>
+    </row>
+    <row r="14" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B14" s="16" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="C14" s="17"/>
       <c r="D14" s="17">
+        <v>152643</v>
+      </c>
+      <c r="E14" s="17">
+        <v>86113</v>
+      </c>
+      <c r="F14" s="17">
+        <v>200792</v>
+      </c>
+      <c r="G14" s="17">
+        <v>446612</v>
+      </c>
+      <c r="H14" s="17">
+        <v>181139</v>
+      </c>
+      <c r="I14" s="17">
+        <v>-12330</v>
+      </c>
+      <c r="J14" s="17">
+        <v>795879</v>
+      </c>
+      <c r="K14" s="17">
+        <v>591469</v>
+      </c>
+      <c r="L14" s="17">
         <v>1021414</v>
       </c>
-      <c r="E14" s="17">
+      <c r="M14" s="17">
         <v>1160905</v>
       </c>
-      <c r="F14" s="17">
+      <c r="N14" s="17">
         <v>1513024</v>
       </c>
-      <c r="G14" s="17">
+      <c r="O14" s="17">
         <v>1539226</v>
       </c>
-      <c r="H14" s="17">
+      <c r="P14" s="17">
         <v>-680697</v>
       </c>
-      <c r="I14" s="17">
+      <c r="Q14" s="17">
         <v>2573069</v>
       </c>
-      <c r="J14" s="17">
+      <c r="R14" s="17">
         <v>2683124</v>
       </c>
-      <c r="K14" s="17">
+      <c r="S14" s="17">
         <v>1459672</v>
       </c>
-      <c r="L14" s="17">
+      <c r="T14" s="17">
         <v>992740</v>
       </c>
-      <c r="M14" s="17">
+      <c r="U14" s="17">
         <v>3211263</v>
       </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V14" s="17">
+        <v>3356638</v>
+      </c>
+      <c r="W14" s="17">
+        <v>3088756</v>
+      </c>
+    </row>
+    <row r="15" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
@@ -1069,82 +1374,152 @@
       <c r="K15" s="13"/>
       <c r="L15" s="13"/>
       <c r="M15" s="13"/>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="13"/>
+      <c r="R15" s="13"/>
+      <c r="S15" s="13"/>
+      <c r="T15" s="13"/>
+      <c r="U15" s="13"/>
+      <c r="V15" s="13"/>
+      <c r="W15" s="13"/>
+    </row>
+    <row r="16" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B16" s="14" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15">
+        <v>0</v>
+      </c>
+      <c r="E16" s="15">
+        <v>0</v>
+      </c>
+      <c r="F16" s="15">
+        <v>0</v>
+      </c>
+      <c r="G16" s="15">
+        <v>0</v>
+      </c>
+      <c r="H16" s="15">
+        <v>0</v>
+      </c>
+      <c r="I16" s="15">
+        <v>0</v>
+      </c>
+      <c r="J16" s="15">
+        <v>0</v>
+      </c>
+      <c r="K16" s="15">
+        <v>0</v>
+      </c>
+      <c r="L16" s="15">
         <v>3333</v>
       </c>
-      <c r="E16" s="15">
+      <c r="M16" s="15">
         <v>1700</v>
       </c>
-      <c r="F16" s="15">
-        <v>0</v>
-      </c>
-      <c r="G16" s="15">
-        <v>0</v>
-      </c>
-      <c r="H16" s="15">
-        <v>0</v>
-      </c>
-      <c r="I16" s="15">
-        <v>0</v>
-      </c>
-      <c r="J16" s="15">
-        <v>0</v>
-      </c>
-      <c r="K16" s="15">
-        <v>0</v>
-      </c>
-      <c r="L16" s="15">
-        <v>0</v>
-      </c>
-      <c r="M16" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N16" s="15">
+        <v>0</v>
+      </c>
+      <c r="O16" s="15">
+        <v>0</v>
+      </c>
+      <c r="P16" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="15">
+        <v>0</v>
+      </c>
+      <c r="R16" s="15">
+        <v>0</v>
+      </c>
+      <c r="S16" s="15">
+        <v>0</v>
+      </c>
+      <c r="T16" s="15">
+        <v>0</v>
+      </c>
+      <c r="U16" s="15">
+        <v>0</v>
+      </c>
+      <c r="V16" s="15">
+        <v>0</v>
+      </c>
+      <c r="W16" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11">
+        <v>-2681</v>
+      </c>
+      <c r="E17" s="11">
+        <v>-6268</v>
+      </c>
+      <c r="F17" s="11">
+        <v>-5827</v>
+      </c>
+      <c r="G17" s="11">
+        <v>1854</v>
+      </c>
+      <c r="H17" s="11">
+        <v>-2731</v>
+      </c>
+      <c r="I17" s="11">
+        <v>-12027</v>
+      </c>
+      <c r="J17" s="11">
+        <v>0</v>
+      </c>
+      <c r="K17" s="11">
+        <v>-16067</v>
+      </c>
+      <c r="L17" s="11">
         <v>-19581</v>
       </c>
-      <c r="E17" s="11">
+      <c r="M17" s="11">
         <v>-28411</v>
       </c>
-      <c r="F17" s="11">
+      <c r="N17" s="11">
         <v>-10576</v>
       </c>
-      <c r="G17" s="11">
+      <c r="O17" s="11">
         <v>-16051</v>
       </c>
-      <c r="H17" s="11">
-        <v>0</v>
-      </c>
-      <c r="I17" s="11">
+      <c r="P17" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="11">
         <v>-25455</v>
       </c>
-      <c r="J17" s="11">
-        <v>0</v>
-      </c>
-      <c r="K17" s="11">
+      <c r="R17" s="11">
+        <v>0</v>
+      </c>
+      <c r="S17" s="11">
         <v>-20555</v>
       </c>
-      <c r="L17" s="11">
+      <c r="T17" s="11">
         <v>-522</v>
       </c>
-      <c r="M17" s="11">
+      <c r="U17" s="11">
         <v>-222051</v>
       </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V17" s="11">
+        <v>-913377</v>
+      </c>
+      <c r="W17" s="11">
+        <v>-187917</v>
+      </c>
+    </row>
+    <row r="18" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15">
@@ -1177,10 +1552,40 @@
       <c r="M18" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N18" s="15">
+        <v>0</v>
+      </c>
+      <c r="O18" s="15">
+        <v>0</v>
+      </c>
+      <c r="P18" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="15">
+        <v>0</v>
+      </c>
+      <c r="R18" s="15">
+        <v>0</v>
+      </c>
+      <c r="S18" s="15">
+        <v>0</v>
+      </c>
+      <c r="T18" s="15">
+        <v>0</v>
+      </c>
+      <c r="U18" s="15">
+        <v>0</v>
+      </c>
+      <c r="V18" s="15">
+        <v>0</v>
+      </c>
+      <c r="W18" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11">
@@ -1213,10 +1618,40 @@
       <c r="M19" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N19" s="11">
+        <v>0</v>
+      </c>
+      <c r="O19" s="11">
+        <v>0</v>
+      </c>
+      <c r="P19" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="11">
+        <v>0</v>
+      </c>
+      <c r="R19" s="11">
+        <v>0</v>
+      </c>
+      <c r="S19" s="11">
+        <v>0</v>
+      </c>
+      <c r="T19" s="11">
+        <v>0</v>
+      </c>
+      <c r="U19" s="11">
+        <v>0</v>
+      </c>
+      <c r="V19" s="11">
+        <v>0</v>
+      </c>
+      <c r="W19" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B20" s="14" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="15">
@@ -1247,12 +1682,42 @@
         <v>0</v>
       </c>
       <c r="M20" s="15">
+        <v>0</v>
+      </c>
+      <c r="N20" s="15">
+        <v>0</v>
+      </c>
+      <c r="O20" s="15">
+        <v>0</v>
+      </c>
+      <c r="P20" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="15">
+        <v>0</v>
+      </c>
+      <c r="R20" s="15">
+        <v>0</v>
+      </c>
+      <c r="S20" s="15">
+        <v>0</v>
+      </c>
+      <c r="T20" s="15">
+        <v>0</v>
+      </c>
+      <c r="U20" s="15">
         <v>-3426</v>
       </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V20" s="15">
+        <v>0</v>
+      </c>
+      <c r="W20" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="11">
@@ -1285,10 +1750,40 @@
       <c r="M21" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N21" s="11">
+        <v>0</v>
+      </c>
+      <c r="O21" s="11">
+        <v>0</v>
+      </c>
+      <c r="P21" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="11">
+        <v>0</v>
+      </c>
+      <c r="R21" s="11">
+        <v>0</v>
+      </c>
+      <c r="S21" s="11">
+        <v>0</v>
+      </c>
+      <c r="T21" s="11">
+        <v>0</v>
+      </c>
+      <c r="U21" s="11">
+        <v>0</v>
+      </c>
+      <c r="V21" s="11">
+        <v>0</v>
+      </c>
+      <c r="W21" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B22" s="14" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="C22" s="15"/>
       <c r="D22" s="15">
@@ -1321,10 +1816,40 @@
       <c r="M22" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N22" s="15">
+        <v>0</v>
+      </c>
+      <c r="O22" s="15">
+        <v>0</v>
+      </c>
+      <c r="P22" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="15">
+        <v>0</v>
+      </c>
+      <c r="R22" s="15">
+        <v>0</v>
+      </c>
+      <c r="S22" s="15">
+        <v>0</v>
+      </c>
+      <c r="T22" s="15">
+        <v>0</v>
+      </c>
+      <c r="U22" s="15">
+        <v>0</v>
+      </c>
+      <c r="V22" s="15">
+        <v>0</v>
+      </c>
+      <c r="W22" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11">
@@ -1337,30 +1862,60 @@
         <v>0</v>
       </c>
       <c r="G23" s="11">
+        <v>0</v>
+      </c>
+      <c r="H23" s="11">
+        <v>0</v>
+      </c>
+      <c r="I23" s="11">
+        <v>0</v>
+      </c>
+      <c r="J23" s="11">
+        <v>0</v>
+      </c>
+      <c r="K23" s="11">
+        <v>0</v>
+      </c>
+      <c r="L23" s="11">
+        <v>0</v>
+      </c>
+      <c r="M23" s="11">
+        <v>0</v>
+      </c>
+      <c r="N23" s="11">
+        <v>0</v>
+      </c>
+      <c r="O23" s="11">
         <v>615600</v>
       </c>
-      <c r="H23" s="11">
+      <c r="P23" s="11">
         <v>29535</v>
       </c>
-      <c r="I23" s="11">
+      <c r="Q23" s="11">
         <v>-645135</v>
       </c>
-      <c r="J23" s="11">
-        <v>0</v>
-      </c>
-      <c r="K23" s="11">
-        <v>0</v>
-      </c>
-      <c r="L23" s="11">
-        <v>0</v>
-      </c>
-      <c r="M23" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="R23" s="11">
+        <v>0</v>
+      </c>
+      <c r="S23" s="11">
+        <v>0</v>
+      </c>
+      <c r="T23" s="11">
+        <v>0</v>
+      </c>
+      <c r="U23" s="11">
+        <v>0</v>
+      </c>
+      <c r="V23" s="11">
+        <v>0</v>
+      </c>
+      <c r="W23" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B24" s="14" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="C24" s="15"/>
       <c r="D24" s="15">
@@ -1376,99 +1931,189 @@
         <v>0</v>
       </c>
       <c r="H24" s="15">
+        <v>0</v>
+      </c>
+      <c r="I24" s="15">
+        <v>0</v>
+      </c>
+      <c r="J24" s="15">
+        <v>0</v>
+      </c>
+      <c r="K24" s="15">
+        <v>0</v>
+      </c>
+      <c r="L24" s="15">
+        <v>0</v>
+      </c>
+      <c r="M24" s="15">
+        <v>0</v>
+      </c>
+      <c r="N24" s="15">
+        <v>0</v>
+      </c>
+      <c r="O24" s="15">
+        <v>0</v>
+      </c>
+      <c r="P24" s="15">
         <v>-76020</v>
       </c>
-      <c r="I24" s="15">
+      <c r="Q24" s="15">
         <v>76020</v>
       </c>
-      <c r="J24" s="15">
-        <v>0</v>
-      </c>
-      <c r="K24" s="15">
-        <v>0</v>
-      </c>
-      <c r="L24" s="15">
-        <v>0</v>
-      </c>
-      <c r="M24" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="R24" s="15">
+        <v>0</v>
+      </c>
+      <c r="S24" s="15">
+        <v>0</v>
+      </c>
+      <c r="T24" s="15">
+        <v>0</v>
+      </c>
+      <c r="U24" s="15">
+        <v>0</v>
+      </c>
+      <c r="V24" s="15">
+        <v>0</v>
+      </c>
+      <c r="W24" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B25" s="10" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="11">
         <v>0</v>
       </c>
       <c r="E25" s="11">
+        <v>0</v>
+      </c>
+      <c r="F25" s="11">
+        <v>250000</v>
+      </c>
+      <c r="G25" s="11">
+        <v>0</v>
+      </c>
+      <c r="H25" s="11">
+        <v>0</v>
+      </c>
+      <c r="I25" s="11">
+        <v>0</v>
+      </c>
+      <c r="J25" s="11">
+        <v>0</v>
+      </c>
+      <c r="K25" s="11">
+        <v>0</v>
+      </c>
+      <c r="L25" s="11">
+        <v>0</v>
+      </c>
+      <c r="M25" s="11">
         <v>382747</v>
       </c>
-      <c r="F25" s="11">
-        <v>0</v>
-      </c>
-      <c r="G25" s="11">
-        <v>0</v>
-      </c>
-      <c r="H25" s="11">
-        <v>0</v>
-      </c>
-      <c r="I25" s="11">
+      <c r="N25" s="11">
+        <v>0</v>
+      </c>
+      <c r="O25" s="11">
+        <v>0</v>
+      </c>
+      <c r="P25" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="11">
         <v>11851</v>
       </c>
-      <c r="J25" s="11">
-        <v>0</v>
-      </c>
-      <c r="K25" s="11">
-        <v>0</v>
-      </c>
-      <c r="L25" s="11">
-        <v>0</v>
-      </c>
-      <c r="M25" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="R25" s="11">
+        <v>0</v>
+      </c>
+      <c r="S25" s="11">
+        <v>0</v>
+      </c>
+      <c r="T25" s="11">
+        <v>0</v>
+      </c>
+      <c r="U25" s="11">
+        <v>0</v>
+      </c>
+      <c r="V25" s="11">
+        <v>0</v>
+      </c>
+      <c r="W25" s="11">
+        <v>6620686</v>
+      </c>
+    </row>
+    <row r="26" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B26" s="14" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="C26" s="15"/>
       <c r="D26" s="15">
+        <v>-321828</v>
+      </c>
+      <c r="E26" s="15">
+        <v>321828</v>
+      </c>
+      <c r="F26" s="15">
+        <v>0</v>
+      </c>
+      <c r="G26" s="15">
+        <v>0</v>
+      </c>
+      <c r="H26" s="15">
+        <v>0</v>
+      </c>
+      <c r="I26" s="15">
+        <v>0</v>
+      </c>
+      <c r="J26" s="15">
+        <v>0</v>
+      </c>
+      <c r="K26" s="15">
+        <v>0</v>
+      </c>
+      <c r="L26" s="15">
         <v>-1150198</v>
       </c>
-      <c r="E26" s="15">
+      <c r="M26" s="15">
         <v>-1080051</v>
       </c>
-      <c r="F26" s="15">
+      <c r="N26" s="15">
         <v>-2130113</v>
       </c>
-      <c r="G26" s="15">
+      <c r="O26" s="15">
         <v>2054093</v>
       </c>
-      <c r="H26" s="15">
+      <c r="P26" s="15">
         <v>76020</v>
       </c>
-      <c r="I26" s="15">
+      <c r="Q26" s="15">
         <v>-1687998</v>
       </c>
-      <c r="J26" s="15">
+      <c r="R26" s="15">
         <v>-746398</v>
       </c>
-      <c r="K26" s="15">
+      <c r="S26" s="15">
         <v>199992</v>
       </c>
-      <c r="L26" s="15">
+      <c r="T26" s="15">
         <v>-44970</v>
       </c>
-      <c r="M26" s="15">
+      <c r="U26" s="15">
         <v>-3965550</v>
       </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V26" s="15">
+        <v>-1970754</v>
+      </c>
+      <c r="W26" s="15">
+        <v>-1655246</v>
+      </c>
+    </row>
+    <row r="27" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B27" s="10" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="C27" s="11"/>
       <c r="D27" s="11">
@@ -1501,10 +2146,40 @@
       <c r="M27" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N27" s="11">
+        <v>0</v>
+      </c>
+      <c r="O27" s="11">
+        <v>0</v>
+      </c>
+      <c r="P27" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="11">
+        <v>0</v>
+      </c>
+      <c r="R27" s="11">
+        <v>0</v>
+      </c>
+      <c r="S27" s="11">
+        <v>0</v>
+      </c>
+      <c r="T27" s="11">
+        <v>0</v>
+      </c>
+      <c r="U27" s="11">
+        <v>0</v>
+      </c>
+      <c r="V27" s="11">
+        <v>0</v>
+      </c>
+      <c r="W27" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B28" s="14" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="C28" s="15"/>
       <c r="D28" s="15">
@@ -1537,10 +2212,40 @@
       <c r="M28" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N28" s="15">
+        <v>0</v>
+      </c>
+      <c r="O28" s="15">
+        <v>0</v>
+      </c>
+      <c r="P28" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="15">
+        <v>0</v>
+      </c>
+      <c r="R28" s="15">
+        <v>0</v>
+      </c>
+      <c r="S28" s="15">
+        <v>0</v>
+      </c>
+      <c r="T28" s="15">
+        <v>0</v>
+      </c>
+      <c r="U28" s="15">
+        <v>0</v>
+      </c>
+      <c r="V28" s="15">
+        <v>0</v>
+      </c>
+      <c r="W28" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B29" s="10" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="C29" s="11"/>
       <c r="D29" s="11">
@@ -1573,154 +2278,304 @@
       <c r="M29" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N29" s="11">
+        <v>0</v>
+      </c>
+      <c r="O29" s="11">
+        <v>0</v>
+      </c>
+      <c r="P29" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="11">
+        <v>0</v>
+      </c>
+      <c r="R29" s="11">
+        <v>0</v>
+      </c>
+      <c r="S29" s="11">
+        <v>0</v>
+      </c>
+      <c r="T29" s="11">
+        <v>0</v>
+      </c>
+      <c r="U29" s="11">
+        <v>0</v>
+      </c>
+      <c r="V29" s="11">
+        <v>0</v>
+      </c>
+      <c r="W29" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B30" s="14" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="C30" s="15"/>
       <c r="D30" s="15">
+        <v>0</v>
+      </c>
+      <c r="E30" s="15">
+        <v>100</v>
+      </c>
+      <c r="F30" s="15">
+        <v>0</v>
+      </c>
+      <c r="G30" s="15">
+        <v>0</v>
+      </c>
+      <c r="H30" s="15">
+        <v>0</v>
+      </c>
+      <c r="I30" s="15">
+        <v>1377</v>
+      </c>
+      <c r="J30" s="15">
+        <v>0</v>
+      </c>
+      <c r="K30" s="15">
+        <v>578</v>
+      </c>
+      <c r="L30" s="15">
         <v>-578</v>
       </c>
-      <c r="E30" s="15">
-        <v>0</v>
-      </c>
-      <c r="F30" s="15">
-        <v>0</v>
-      </c>
-      <c r="G30" s="15">
+      <c r="M30" s="15">
+        <v>0</v>
+      </c>
+      <c r="N30" s="15">
+        <v>0</v>
+      </c>
+      <c r="O30" s="15">
         <v>24844</v>
       </c>
-      <c r="H30" s="15">
-        <v>0</v>
-      </c>
-      <c r="I30" s="15">
-        <v>0</v>
-      </c>
-      <c r="J30" s="15">
+      <c r="P30" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="15">
+        <v>0</v>
+      </c>
+      <c r="R30" s="15">
         <v>89971</v>
       </c>
-      <c r="K30" s="15">
+      <c r="S30" s="15">
         <v>-48603</v>
       </c>
-      <c r="L30" s="15">
+      <c r="T30" s="15">
         <v>48360</v>
       </c>
-      <c r="M30" s="15">
+      <c r="U30" s="15">
         <v>15757</v>
       </c>
-    </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V30" s="15">
+        <v>0</v>
+      </c>
+      <c r="W30" s="15">
+        <v>189856</v>
+      </c>
+    </row>
+    <row r="31" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B31" s="10" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="C31" s="11"/>
       <c r="D31" s="11">
+        <v>35843</v>
+      </c>
+      <c r="E31" s="11">
+        <v>43055</v>
+      </c>
+      <c r="F31" s="11">
+        <v>30426</v>
+      </c>
+      <c r="G31" s="11">
+        <v>14662</v>
+      </c>
+      <c r="H31" s="11">
+        <v>19559</v>
+      </c>
+      <c r="I31" s="11">
+        <v>24059</v>
+      </c>
+      <c r="J31" s="11">
+        <v>25269</v>
+      </c>
+      <c r="K31" s="11">
+        <v>19806</v>
+      </c>
+      <c r="L31" s="11">
         <v>30292</v>
       </c>
-      <c r="E31" s="11">
+      <c r="M31" s="11">
         <v>54526</v>
       </c>
-      <c r="F31" s="11">
+      <c r="N31" s="11">
         <v>25444</v>
       </c>
-      <c r="G31" s="11">
+      <c r="O31" s="11">
         <v>123012</v>
       </c>
-      <c r="H31" s="11">
+      <c r="P31" s="11">
         <v>166425</v>
       </c>
-      <c r="I31" s="11">
+      <c r="Q31" s="11">
         <v>93549</v>
       </c>
-      <c r="J31" s="11">
+      <c r="R31" s="11">
         <v>158484</v>
       </c>
-      <c r="K31" s="11">
+      <c r="S31" s="11">
         <v>268494</v>
       </c>
-      <c r="L31" s="11">
+      <c r="T31" s="11">
         <v>195174</v>
       </c>
-      <c r="M31" s="11">
+      <c r="U31" s="11">
         <v>294382</v>
       </c>
-    </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V31" s="11">
+        <v>310077</v>
+      </c>
+      <c r="W31" s="11">
+        <v>317900</v>
+      </c>
+    </row>
+    <row r="32" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B32" s="16" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="C32" s="17"/>
       <c r="D32" s="17">
+        <v>-288666</v>
+      </c>
+      <c r="E32" s="17">
+        <v>358715</v>
+      </c>
+      <c r="F32" s="17">
+        <v>274599</v>
+      </c>
+      <c r="G32" s="17">
+        <v>16516</v>
+      </c>
+      <c r="H32" s="17">
+        <v>16828</v>
+      </c>
+      <c r="I32" s="17">
+        <v>13409</v>
+      </c>
+      <c r="J32" s="17">
+        <v>25269</v>
+      </c>
+      <c r="K32" s="17">
+        <v>4317</v>
+      </c>
+      <c r="L32" s="17">
         <v>-1136732</v>
       </c>
-      <c r="E32" s="17">
+      <c r="M32" s="17">
         <v>-669489</v>
       </c>
-      <c r="F32" s="17">
+      <c r="N32" s="17">
         <v>-2115245</v>
       </c>
-      <c r="G32" s="17">
+      <c r="O32" s="17">
         <v>2801498</v>
       </c>
-      <c r="H32" s="17">
+      <c r="P32" s="17">
         <v>195960</v>
       </c>
-      <c r="I32" s="17">
+      <c r="Q32" s="17">
         <v>-2177168</v>
       </c>
-      <c r="J32" s="17">
+      <c r="R32" s="17">
         <v>-497943</v>
       </c>
-      <c r="K32" s="17">
+      <c r="S32" s="17">
         <v>399328</v>
       </c>
-      <c r="L32" s="17">
+      <c r="T32" s="17">
         <v>198042</v>
       </c>
-      <c r="M32" s="17">
+      <c r="U32" s="17">
         <v>-3880888</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V32" s="17">
+        <v>-2574054</v>
+      </c>
+      <c r="W32" s="17">
+        <v>5285279</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B33" s="18" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="C33" s="19"/>
       <c r="D33" s="19">
+        <v>-136023</v>
+      </c>
+      <c r="E33" s="19">
+        <v>444828</v>
+      </c>
+      <c r="F33" s="19">
+        <v>475391</v>
+      </c>
+      <c r="G33" s="19">
+        <v>463128</v>
+      </c>
+      <c r="H33" s="19">
+        <v>197967</v>
+      </c>
+      <c r="I33" s="19">
+        <v>1079</v>
+      </c>
+      <c r="J33" s="19">
+        <v>821148</v>
+      </c>
+      <c r="K33" s="19">
+        <v>595786</v>
+      </c>
+      <c r="L33" s="19">
         <v>-115318</v>
       </c>
-      <c r="E33" s="19">
+      <c r="M33" s="19">
         <v>491416</v>
       </c>
-      <c r="F33" s="19">
+      <c r="N33" s="19">
         <v>-602221</v>
       </c>
-      <c r="G33" s="19">
+      <c r="O33" s="19">
         <v>4340724</v>
       </c>
-      <c r="H33" s="19">
+      <c r="P33" s="19">
         <v>-484737</v>
       </c>
-      <c r="I33" s="19">
+      <c r="Q33" s="19">
         <v>395901</v>
       </c>
-      <c r="J33" s="19">
+      <c r="R33" s="19">
         <v>2185181</v>
       </c>
-      <c r="K33" s="19">
+      <c r="S33" s="19">
         <v>1859000</v>
       </c>
-      <c r="L33" s="19">
+      <c r="T33" s="19">
         <v>1190782</v>
       </c>
-      <c r="M33" s="19">
+      <c r="U33" s="19">
         <v>-669625</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V33" s="19">
+        <v>782584</v>
+      </c>
+      <c r="W33" s="19">
+        <v>8374035</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B34" s="12" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="C34" s="13"/>
       <c r="D34" s="13"/>
@@ -1733,10 +2588,20 @@
       <c r="K34" s="13"/>
       <c r="L34" s="13"/>
       <c r="M34" s="13"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N34" s="13"/>
+      <c r="O34" s="13"/>
+      <c r="P34" s="13"/>
+      <c r="Q34" s="13"/>
+      <c r="R34" s="13"/>
+      <c r="S34" s="13"/>
+      <c r="T34" s="13"/>
+      <c r="U34" s="13"/>
+      <c r="V34" s="13"/>
+      <c r="W34" s="13"/>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B35" s="14" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="C35" s="15"/>
       <c r="D35" s="15">
@@ -1769,122 +2634,242 @@
       <c r="M35" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N35" s="15">
+        <v>0</v>
+      </c>
+      <c r="O35" s="15">
+        <v>0</v>
+      </c>
+      <c r="P35" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="15">
+        <v>0</v>
+      </c>
+      <c r="R35" s="15">
+        <v>0</v>
+      </c>
+      <c r="S35" s="15">
+        <v>0</v>
+      </c>
+      <c r="T35" s="15">
+        <v>0</v>
+      </c>
+      <c r="U35" s="15">
+        <v>0</v>
+      </c>
+      <c r="V35" s="15">
+        <v>0</v>
+      </c>
+      <c r="W35" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="C36" s="11"/>
       <c r="D36" s="11" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="H36" s="11">
-        <v>0</v>
-      </c>
-      <c r="I36" s="11">
-        <v>0</v>
+        <v>72</v>
+      </c>
+      <c r="H36" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="I36" s="11" t="s">
+        <v>72</v>
       </c>
       <c r="J36" s="11" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="K36" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="L36" s="11">
-        <v>0</v>
-      </c>
-      <c r="M36" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+      <c r="L36" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="M36" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="N36" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="O36" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="P36" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="11">
+        <v>0</v>
+      </c>
+      <c r="R36" s="11">
+        <v>0</v>
+      </c>
+      <c r="S36" s="11">
+        <v>0</v>
+      </c>
+      <c r="T36" s="11">
+        <v>0</v>
+      </c>
+      <c r="U36" s="11">
+        <v>0</v>
+      </c>
+      <c r="V36" s="11">
+        <v>0</v>
+      </c>
+      <c r="W36" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B37" s="14" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="C37" s="15"/>
       <c r="D37" s="15">
         <v>0</v>
       </c>
       <c r="E37" s="15">
+        <v>0</v>
+      </c>
+      <c r="F37" s="15">
+        <v>0</v>
+      </c>
+      <c r="G37" s="15">
+        <v>0</v>
+      </c>
+      <c r="H37" s="15">
+        <v>0</v>
+      </c>
+      <c r="I37" s="15">
+        <v>0</v>
+      </c>
+      <c r="J37" s="15">
+        <v>0</v>
+      </c>
+      <c r="K37" s="15">
+        <v>0</v>
+      </c>
+      <c r="L37" s="15">
+        <v>0</v>
+      </c>
+      <c r="M37" s="15">
         <v>224434</v>
       </c>
-      <c r="F37" s="15">
-        <v>0</v>
-      </c>
-      <c r="G37" s="15">
+      <c r="N37" s="15">
+        <v>0</v>
+      </c>
+      <c r="O37" s="15">
         <v>92772</v>
       </c>
-      <c r="H37" s="15">
+      <c r="P37" s="15">
         <v>-92772</v>
       </c>
-      <c r="I37" s="15">
+      <c r="Q37" s="15">
         <v>149376</v>
       </c>
-      <c r="J37" s="15">
-        <v>0</v>
-      </c>
-      <c r="K37" s="15">
+      <c r="R37" s="15">
+        <v>0</v>
+      </c>
+      <c r="S37" s="15">
         <v>80512</v>
       </c>
-      <c r="L37" s="15">
-        <v>0</v>
-      </c>
-      <c r="M37" s="15">
+      <c r="T37" s="15">
+        <v>0</v>
+      </c>
+      <c r="U37" s="15">
         <v>68448</v>
       </c>
-    </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V37" s="15">
+        <v>0</v>
+      </c>
+      <c r="W37" s="15">
+        <v>104674</v>
+      </c>
+    </row>
+    <row r="38" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="C38" s="11"/>
       <c r="D38" s="11">
         <v>0</v>
       </c>
       <c r="E38" s="11">
+        <v>0</v>
+      </c>
+      <c r="F38" s="11">
+        <v>0</v>
+      </c>
+      <c r="G38" s="11">
+        <v>0</v>
+      </c>
+      <c r="H38" s="11">
+        <v>0</v>
+      </c>
+      <c r="I38" s="11">
+        <v>0</v>
+      </c>
+      <c r="J38" s="11">
+        <v>0</v>
+      </c>
+      <c r="K38" s="11">
+        <v>0</v>
+      </c>
+      <c r="L38" s="11">
+        <v>0</v>
+      </c>
+      <c r="M38" s="11">
         <v>-290605</v>
       </c>
-      <c r="F38" s="11">
-        <v>0</v>
-      </c>
-      <c r="G38" s="11">
+      <c r="N38" s="11">
+        <v>0</v>
+      </c>
+      <c r="O38" s="11">
         <v>-63237</v>
       </c>
-      <c r="H38" s="11">
+      <c r="P38" s="11">
         <v>63237</v>
       </c>
-      <c r="I38" s="11">
+      <c r="Q38" s="11">
         <v>-147929</v>
       </c>
-      <c r="J38" s="11">
-        <v>0</v>
-      </c>
-      <c r="K38" s="11">
+      <c r="R38" s="11">
+        <v>0</v>
+      </c>
+      <c r="S38" s="11">
         <v>-14512</v>
       </c>
-      <c r="L38" s="11">
-        <v>0</v>
-      </c>
-      <c r="M38" s="11">
+      <c r="T38" s="11">
+        <v>0</v>
+      </c>
+      <c r="U38" s="11">
         <v>-75546</v>
       </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V38" s="11">
+        <v>0</v>
+      </c>
+      <c r="W38" s="11">
+        <v>-113845</v>
+      </c>
+    </row>
+    <row r="39" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B39" s="14" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="C39" s="15"/>
       <c r="D39" s="15">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="E39" s="15">
         <v>0</v>
@@ -1913,29 +2898,59 @@
       <c r="M39" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N39" s="15">
+        <v>0</v>
+      </c>
+      <c r="O39" s="15">
+        <v>0</v>
+      </c>
+      <c r="P39" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="15">
+        <v>0</v>
+      </c>
+      <c r="R39" s="15">
+        <v>0</v>
+      </c>
+      <c r="S39" s="15">
+        <v>0</v>
+      </c>
+      <c r="T39" s="15">
+        <v>0</v>
+      </c>
+      <c r="U39" s="15">
+        <v>0</v>
+      </c>
+      <c r="V39" s="15">
+        <v>0</v>
+      </c>
+      <c r="W39" s="15">
+        <v>1600000</v>
+      </c>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="C40" s="11"/>
       <c r="D40" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E40" s="11">
-        <v>-17160</v>
+        <v>-40535</v>
       </c>
       <c r="F40" s="11">
-        <v>0</v>
+        <v>-24426</v>
       </c>
       <c r="G40" s="11">
-        <v>-17160</v>
+        <v>-42686</v>
       </c>
       <c r="H40" s="11">
-        <v>0</v>
+        <v>-26674</v>
       </c>
       <c r="I40" s="11">
-        <v>-17160</v>
+        <v>-17159</v>
       </c>
       <c r="J40" s="11">
         <v>0</v>
@@ -1949,46 +2964,106 @@
       <c r="M40" s="11">
         <v>-17160</v>
       </c>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N40" s="11">
+        <v>0</v>
+      </c>
+      <c r="O40" s="11">
+        <v>-17160</v>
+      </c>
+      <c r="P40" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="11">
+        <v>-17160</v>
+      </c>
+      <c r="R40" s="11">
+        <v>0</v>
+      </c>
+      <c r="S40" s="11">
+        <v>-17160</v>
+      </c>
+      <c r="T40" s="11">
+        <v>0</v>
+      </c>
+      <c r="U40" s="11">
+        <v>-17160</v>
+      </c>
+      <c r="V40" s="11">
+        <v>-83078</v>
+      </c>
+      <c r="W40" s="11">
+        <v>-168139</v>
+      </c>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B41" s="14" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="C41" s="15"/>
       <c r="D41" s="15">
+        <v>0</v>
+      </c>
+      <c r="E41" s="15">
+        <v>-21093</v>
+      </c>
+      <c r="F41" s="15">
+        <v>-3448</v>
+      </c>
+      <c r="G41" s="15">
+        <v>-20240</v>
+      </c>
+      <c r="H41" s="15">
+        <v>-1200</v>
+      </c>
+      <c r="I41" s="15">
+        <v>-19175</v>
+      </c>
+      <c r="J41" s="15">
+        <v>0</v>
+      </c>
+      <c r="K41" s="15">
+        <v>-20793</v>
+      </c>
+      <c r="L41" s="15">
         <v>321</v>
       </c>
-      <c r="E41" s="15">
+      <c r="M41" s="15">
         <v>-21748</v>
       </c>
-      <c r="F41" s="15">
-        <v>0</v>
-      </c>
-      <c r="G41" s="15">
+      <c r="N41" s="15">
+        <v>0</v>
+      </c>
+      <c r="O41" s="15">
         <v>-23046</v>
       </c>
-      <c r="H41" s="15">
-        <v>0</v>
-      </c>
-      <c r="I41" s="15">
+      <c r="P41" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="15">
         <v>-24323</v>
       </c>
-      <c r="J41" s="15">
-        <v>0</v>
-      </c>
-      <c r="K41" s="15">
+      <c r="R41" s="15">
+        <v>0</v>
+      </c>
+      <c r="S41" s="15">
         <v>-25620</v>
       </c>
-      <c r="L41" s="15">
-        <v>0</v>
-      </c>
-      <c r="M41" s="15">
+      <c r="T41" s="15">
+        <v>0</v>
+      </c>
+      <c r="U41" s="15">
         <v>-26897</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V41" s="15">
+        <v>-14545</v>
+      </c>
+      <c r="W41" s="15">
+        <v>-25333</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B42" s="10" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="C42" s="11"/>
       <c r="D42" s="11">
@@ -2021,10 +3096,40 @@
       <c r="M42" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N42" s="11">
+        <v>0</v>
+      </c>
+      <c r="O42" s="11">
+        <v>0</v>
+      </c>
+      <c r="P42" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="11">
+        <v>0</v>
+      </c>
+      <c r="R42" s="11">
+        <v>0</v>
+      </c>
+      <c r="S42" s="11">
+        <v>0</v>
+      </c>
+      <c r="T42" s="11">
+        <v>0</v>
+      </c>
+      <c r="U42" s="11">
+        <v>0</v>
+      </c>
+      <c r="V42" s="11">
+        <v>0</v>
+      </c>
+      <c r="W42" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B43" s="14" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="C43" s="15"/>
       <c r="D43" s="15">
@@ -2057,10 +3162,40 @@
       <c r="M43" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N43" s="15">
+        <v>0</v>
+      </c>
+      <c r="O43" s="15">
+        <v>0</v>
+      </c>
+      <c r="P43" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="15">
+        <v>0</v>
+      </c>
+      <c r="R43" s="15">
+        <v>0</v>
+      </c>
+      <c r="S43" s="15">
+        <v>0</v>
+      </c>
+      <c r="T43" s="15">
+        <v>0</v>
+      </c>
+      <c r="U43" s="15">
+        <v>0</v>
+      </c>
+      <c r="V43" s="15">
+        <v>0</v>
+      </c>
+      <c r="W43" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B44" s="10" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="C44" s="11"/>
       <c r="D44" s="11">
@@ -2093,10 +3228,40 @@
       <c r="M44" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N44" s="11">
+        <v>0</v>
+      </c>
+      <c r="O44" s="11">
+        <v>0</v>
+      </c>
+      <c r="P44" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="11">
+        <v>0</v>
+      </c>
+      <c r="R44" s="11">
+        <v>0</v>
+      </c>
+      <c r="S44" s="11">
+        <v>0</v>
+      </c>
+      <c r="T44" s="11">
+        <v>0</v>
+      </c>
+      <c r="U44" s="11">
+        <v>0</v>
+      </c>
+      <c r="V44" s="11">
+        <v>0</v>
+      </c>
+      <c r="W44" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B45" s="14" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="C45" s="15"/>
       <c r="D45" s="15">
@@ -2129,10 +3294,40 @@
       <c r="M45" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N45" s="15">
+        <v>0</v>
+      </c>
+      <c r="O45" s="15">
+        <v>0</v>
+      </c>
+      <c r="P45" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="15">
+        <v>0</v>
+      </c>
+      <c r="R45" s="15">
+        <v>0</v>
+      </c>
+      <c r="S45" s="15">
+        <v>0</v>
+      </c>
+      <c r="T45" s="15">
+        <v>0</v>
+      </c>
+      <c r="U45" s="15">
+        <v>0</v>
+      </c>
+      <c r="V45" s="15">
+        <v>0</v>
+      </c>
+      <c r="W45" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B46" s="10" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="C46" s="11"/>
       <c r="D46" s="11">
@@ -2165,10 +3360,40 @@
       <c r="M46" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N46" s="11">
+        <v>0</v>
+      </c>
+      <c r="O46" s="11">
+        <v>0</v>
+      </c>
+      <c r="P46" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="11">
+        <v>0</v>
+      </c>
+      <c r="R46" s="11">
+        <v>0</v>
+      </c>
+      <c r="S46" s="11">
+        <v>0</v>
+      </c>
+      <c r="T46" s="11">
+        <v>0</v>
+      </c>
+      <c r="U46" s="11">
+        <v>0</v>
+      </c>
+      <c r="V46" s="11">
+        <v>0</v>
+      </c>
+      <c r="W46" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B47" s="14" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="C47" s="15"/>
       <c r="D47" s="15">
@@ -2201,10 +3426,40 @@
       <c r="M47" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N47" s="15">
+        <v>0</v>
+      </c>
+      <c r="O47" s="15">
+        <v>0</v>
+      </c>
+      <c r="P47" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="15">
+        <v>0</v>
+      </c>
+      <c r="R47" s="15">
+        <v>0</v>
+      </c>
+      <c r="S47" s="15">
+        <v>0</v>
+      </c>
+      <c r="T47" s="15">
+        <v>0</v>
+      </c>
+      <c r="U47" s="15">
+        <v>0</v>
+      </c>
+      <c r="V47" s="15">
+        <v>0</v>
+      </c>
+      <c r="W47" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="C48" s="11"/>
       <c r="D48" s="11">
@@ -2237,10 +3492,40 @@
       <c r="M48" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N48" s="11">
+        <v>0</v>
+      </c>
+      <c r="O48" s="11">
+        <v>0</v>
+      </c>
+      <c r="P48" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="11">
+        <v>0</v>
+      </c>
+      <c r="R48" s="11">
+        <v>0</v>
+      </c>
+      <c r="S48" s="11">
+        <v>0</v>
+      </c>
+      <c r="T48" s="11">
+        <v>0</v>
+      </c>
+      <c r="U48" s="11">
+        <v>0</v>
+      </c>
+      <c r="V48" s="11">
+        <v>0</v>
+      </c>
+      <c r="W48" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B49" s="14" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="C49" s="15"/>
       <c r="D49" s="15">
@@ -2273,226 +3558,436 @@
       <c r="M49" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N49" s="15">
+        <v>0</v>
+      </c>
+      <c r="O49" s="15">
+        <v>0</v>
+      </c>
+      <c r="P49" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="15">
+        <v>0</v>
+      </c>
+      <c r="R49" s="15">
+        <v>0</v>
+      </c>
+      <c r="S49" s="15">
+        <v>0</v>
+      </c>
+      <c r="T49" s="15">
+        <v>0</v>
+      </c>
+      <c r="U49" s="15">
+        <v>0</v>
+      </c>
+      <c r="V49" s="15">
+        <v>0</v>
+      </c>
+      <c r="W49" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="C50" s="11"/>
       <c r="D50" s="11">
+        <v>-90000</v>
+      </c>
+      <c r="E50" s="11">
+        <v>-153074</v>
+      </c>
+      <c r="F50" s="11">
+        <v>-715093</v>
+      </c>
+      <c r="G50" s="11">
+        <v>-115730</v>
+      </c>
+      <c r="H50" s="11">
+        <v>-147270</v>
+      </c>
+      <c r="I50" s="11">
+        <v>0</v>
+      </c>
+      <c r="J50" s="11">
+        <v>0</v>
+      </c>
+      <c r="K50" s="11">
+        <v>-1351476</v>
+      </c>
+      <c r="L50" s="11">
         <v>-94</v>
       </c>
-      <c r="E50" s="11">
+      <c r="M50" s="11">
         <v>-27006</v>
       </c>
-      <c r="F50" s="11">
-        <v>0</v>
-      </c>
-      <c r="G50" s="11">
+      <c r="N50" s="11">
+        <v>0</v>
+      </c>
+      <c r="O50" s="11">
         <v>-3131441</v>
       </c>
-      <c r="H50" s="11">
+      <c r="P50" s="11">
         <v>-24148</v>
       </c>
-      <c r="I50" s="11">
+      <c r="Q50" s="11">
         <v>-341</v>
       </c>
-      <c r="J50" s="11">
-        <v>0</v>
-      </c>
-      <c r="K50" s="11">
+      <c r="R50" s="11">
+        <v>0</v>
+      </c>
+      <c r="S50" s="11">
         <v>-1999558</v>
       </c>
-      <c r="L50" s="11">
+      <c r="T50" s="11">
         <v>-2856701</v>
       </c>
-      <c r="M50" s="11">
+      <c r="U50" s="11">
         <v>-32355</v>
       </c>
-    </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V50" s="11">
+        <v>-15111</v>
+      </c>
+      <c r="W50" s="11">
+        <v>-9797028</v>
+      </c>
+    </row>
+    <row r="51" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B51" s="16" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="C51" s="17"/>
       <c r="D51" s="17">
+        <v>10001</v>
+      </c>
+      <c r="E51" s="17">
+        <v>-214702</v>
+      </c>
+      <c r="F51" s="17">
+        <v>-742967</v>
+      </c>
+      <c r="G51" s="17">
+        <v>-178656</v>
+      </c>
+      <c r="H51" s="17">
+        <v>-175144</v>
+      </c>
+      <c r="I51" s="17">
+        <v>-36334</v>
+      </c>
+      <c r="J51" s="17">
+        <v>0</v>
+      </c>
+      <c r="K51" s="17">
+        <v>-1389429</v>
+      </c>
+      <c r="L51" s="17">
         <v>227</v>
       </c>
-      <c r="E51" s="17">
+      <c r="M51" s="17">
         <v>-132085</v>
       </c>
-      <c r="F51" s="17">
-        <v>0</v>
-      </c>
-      <c r="G51" s="17">
+      <c r="N51" s="17">
+        <v>0</v>
+      </c>
+      <c r="O51" s="17">
         <v>-3142112</v>
       </c>
-      <c r="H51" s="17">
+      <c r="P51" s="17">
         <v>-53683</v>
       </c>
-      <c r="I51" s="17">
+      <c r="Q51" s="17">
         <v>-40377</v>
       </c>
-      <c r="J51" s="17">
-        <v>0</v>
-      </c>
-      <c r="K51" s="17">
+      <c r="R51" s="17">
+        <v>0</v>
+      </c>
+      <c r="S51" s="17">
         <v>-1976338</v>
       </c>
-      <c r="L51" s="17">
+      <c r="T51" s="17">
         <v>-2856701</v>
       </c>
-      <c r="M51" s="17">
+      <c r="U51" s="17">
         <v>-83510</v>
       </c>
-    </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V51" s="17">
+        <v>-112734</v>
+      </c>
+      <c r="W51" s="17">
+        <v>-8399671</v>
+      </c>
+    </row>
+    <row r="52" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B52" s="18" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="C52" s="19"/>
       <c r="D52" s="19">
+        <v>-126022</v>
+      </c>
+      <c r="E52" s="19">
+        <v>230126</v>
+      </c>
+      <c r="F52" s="19">
+        <v>-267576</v>
+      </c>
+      <c r="G52" s="19">
+        <v>284472</v>
+      </c>
+      <c r="H52" s="19">
+        <v>22823</v>
+      </c>
+      <c r="I52" s="19">
+        <v>-35255</v>
+      </c>
+      <c r="J52" s="19">
+        <v>821148</v>
+      </c>
+      <c r="K52" s="19">
+        <v>-793643</v>
+      </c>
+      <c r="L52" s="19">
         <v>-115091</v>
       </c>
-      <c r="E52" s="19">
+      <c r="M52" s="19">
         <v>359331</v>
       </c>
-      <c r="F52" s="19">
+      <c r="N52" s="19">
         <v>-602221</v>
       </c>
-      <c r="G52" s="19">
+      <c r="O52" s="19">
         <v>1198612</v>
       </c>
-      <c r="H52" s="19">
+      <c r="P52" s="19">
         <v>-538420</v>
       </c>
-      <c r="I52" s="19">
+      <c r="Q52" s="19">
         <v>355524</v>
       </c>
-      <c r="J52" s="19">
+      <c r="R52" s="19">
         <v>2185181</v>
       </c>
-      <c r="K52" s="19">
+      <c r="S52" s="19">
         <v>-117338</v>
       </c>
-      <c r="L52" s="19">
+      <c r="T52" s="19">
         <v>-1665919</v>
       </c>
-      <c r="M52" s="19">
+      <c r="U52" s="19">
         <v>-753135</v>
       </c>
-    </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V52" s="19">
+        <v>669850</v>
+      </c>
+      <c r="W52" s="19">
+        <v>-25636</v>
+      </c>
+    </row>
+    <row r="53" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B53" s="14" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="C53" s="15"/>
       <c r="D53" s="15">
+        <v>372477</v>
+      </c>
+      <c r="E53" s="15">
+        <v>246455</v>
+      </c>
+      <c r="F53" s="15">
+        <v>479659</v>
+      </c>
+      <c r="G53" s="15">
+        <v>212083</v>
+      </c>
+      <c r="H53" s="15">
+        <v>496555</v>
+      </c>
+      <c r="I53" s="15">
+        <v>519378</v>
+      </c>
+      <c r="J53" s="15">
+        <v>692721</v>
+      </c>
+      <c r="K53" s="15">
+        <v>1542837</v>
+      </c>
+      <c r="L53" s="15">
         <v>628737</v>
       </c>
-      <c r="E53" s="15">
+      <c r="M53" s="15">
         <v>539172</v>
       </c>
-      <c r="F53" s="15">
+      <c r="N53" s="15">
         <v>819625</v>
       </c>
-      <c r="G53" s="15">
+      <c r="O53" s="15">
         <v>210560</v>
       </c>
-      <c r="H53" s="15">
+      <c r="P53" s="15">
         <v>1421181</v>
       </c>
-      <c r="I53" s="15">
+      <c r="Q53" s="15">
         <v>882761</v>
       </c>
-      <c r="J53" s="15">
+      <c r="R53" s="15">
         <v>1224333</v>
       </c>
-      <c r="K53" s="15">
+      <c r="S53" s="15">
         <v>3409514</v>
       </c>
-      <c r="L53" s="15">
+      <c r="T53" s="15">
         <v>3292993</v>
       </c>
-      <c r="M53" s="15">
+      <c r="U53" s="15">
         <v>1708760</v>
       </c>
-    </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V53" s="15">
+        <v>1251834</v>
+      </c>
+      <c r="W53" s="15">
+        <v>1921684</v>
+      </c>
+    </row>
+    <row r="54" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="C54" s="11"/>
       <c r="D54" s="11">
+        <v>0</v>
+      </c>
+      <c r="E54" s="11">
+        <v>3078</v>
+      </c>
+      <c r="F54" s="11">
+        <v>0</v>
+      </c>
+      <c r="G54" s="11">
+        <v>0</v>
+      </c>
+      <c r="H54" s="11">
+        <v>0</v>
+      </c>
+      <c r="I54" s="11">
+        <v>58598</v>
+      </c>
+      <c r="J54" s="11">
+        <v>28968</v>
+      </c>
+      <c r="K54" s="11">
+        <v>29543</v>
+      </c>
+      <c r="L54" s="11">
         <v>25526</v>
       </c>
-      <c r="E54" s="11">
+      <c r="M54" s="11">
         <v>-78878</v>
       </c>
-      <c r="F54" s="11">
+      <c r="N54" s="11">
         <v>-6844</v>
       </c>
-      <c r="G54" s="11">
+      <c r="O54" s="11">
         <v>12009</v>
       </c>
-      <c r="H54" s="11">
-        <v>0</v>
-      </c>
-      <c r="I54" s="11">
+      <c r="P54" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="11">
         <v>-13952</v>
       </c>
-      <c r="J54" s="11">
-        <v>0</v>
-      </c>
-      <c r="K54" s="11">
+      <c r="R54" s="11">
+        <v>0</v>
+      </c>
+      <c r="S54" s="11">
         <v>817</v>
       </c>
-      <c r="L54" s="11">
+      <c r="T54" s="11">
         <v>81686</v>
       </c>
-      <c r="M54" s="11">
+      <c r="U54" s="11">
         <v>296209</v>
       </c>
-    </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V54" s="11">
+        <v>0</v>
+      </c>
+      <c r="W54" s="11">
+        <v>-1720</v>
+      </c>
+    </row>
+    <row r="55" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B55" s="16" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="C55" s="17"/>
       <c r="D55" s="17">
+        <v>246455</v>
+      </c>
+      <c r="E55" s="17">
+        <v>479659</v>
+      </c>
+      <c r="F55" s="17">
+        <v>212083</v>
+      </c>
+      <c r="G55" s="17">
+        <v>496555</v>
+      </c>
+      <c r="H55" s="17">
+        <v>519378</v>
+      </c>
+      <c r="I55" s="17">
+        <v>542721</v>
+      </c>
+      <c r="J55" s="17">
+        <v>1542837</v>
+      </c>
+      <c r="K55" s="17">
+        <v>628737</v>
+      </c>
+      <c r="L55" s="17">
         <v>539172</v>
       </c>
-      <c r="E55" s="17">
+      <c r="M55" s="17">
         <v>819625</v>
       </c>
-      <c r="F55" s="17">
+      <c r="N55" s="17">
         <v>210560</v>
       </c>
-      <c r="G55" s="17">
+      <c r="O55" s="17">
         <v>1421181</v>
       </c>
-      <c r="H55" s="17">
+      <c r="P55" s="17">
         <v>882761</v>
       </c>
-      <c r="I55" s="17">
+      <c r="Q55" s="17">
         <v>1224333</v>
       </c>
-      <c r="J55" s="17">
+      <c r="R55" s="17">
         <v>3409514</v>
       </c>
-      <c r="K55" s="17">
+      <c r="S55" s="17">
         <v>3292993</v>
       </c>
-      <c r="L55" s="17">
+      <c r="T55" s="17">
         <v>1708760</v>
       </c>
-      <c r="M55" s="17">
+      <c r="U55" s="17">
         <v>1251834</v>
       </c>
-    </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V55" s="17">
+        <v>1921684</v>
+      </c>
+      <c r="W55" s="17">
+        <v>1894328</v>
+      </c>
+    </row>
+    <row r="56" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B56" s="10" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="C56" s="11"/>
       <c r="D56" s="11">
@@ -2525,8 +4020,38 @@
       <c r="M56" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N56" s="11">
+        <v>0</v>
+      </c>
+      <c r="O56" s="11">
+        <v>0</v>
+      </c>
+      <c r="P56" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q56" s="11">
+        <v>0</v>
+      </c>
+      <c r="R56" s="11">
+        <v>0</v>
+      </c>
+      <c r="S56" s="11">
+        <v>0</v>
+      </c>
+      <c r="T56" s="11">
+        <v>0</v>
+      </c>
+      <c r="U56" s="11">
+        <v>0</v>
+      </c>
+      <c r="V56" s="11">
+        <v>0</v>
+      </c>
+      <c r="W56" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -2539,6 +4064,16 @@
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
       <c r="M57" s="1"/>
+      <c r="N57" s="1"/>
+      <c r="O57" s="1"/>
+      <c r="P57" s="1"/>
+      <c r="Q57" s="1"/>
+      <c r="R57" s="1"/>
+      <c r="S57" s="1"/>
+      <c r="T57" s="1"/>
+      <c r="U57" s="1"/>
+      <c r="V57" s="1"/>
+      <c r="W57" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
